--- a/SUMMARY SHEETS/RUT_Genus_2PSummary.xlsx
+++ b/SUMMARY SHEETS/RUT_Genus_2PSummary.xlsx
@@ -671,28 +671,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0076</v>
+        <v>0.0000076</v>
       </c>
       <c r="F2" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0818083961248655</v>
+        <v>0.0000818083961248655</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0528778255</v>
+        <v>0.0000528778255</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.569190801937567</v>
+        <v>-0.000569190801937567</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.13838160387513</v>
+        <v>-0.00113838160387513</v>
       </c>
       <c r="K2" t="n">
-        <v>2.1949548116254</v>
+        <v>0.0021949548116254</v>
       </c>
       <c r="L2" t="n">
-        <v>2.11314641550054</v>
+        <v>0.00211314641550054</v>
       </c>
       <c r="M2" t="n">
         <v>0.962728892781039</v>
@@ -701,7 +701,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>0.35219106925009</v>
+        <v>0.00035219106925009</v>
       </c>
       <c r="P2" t="n">
         <v>0.160454815463506</v>
@@ -724,28 +724,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E3" t="n">
-        <v>0.098155651</v>
+        <v>0.000098155651</v>
       </c>
       <c r="F3" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G3" t="n">
-        <v>2.11314641550054</v>
+        <v>0.00211314641550054</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0490778255</v>
+        <v>0.0000490778255</v>
       </c>
       <c r="I3" t="n">
-        <v>1.05657320775027</v>
+        <v>0.00105657320775027</v>
       </c>
       <c r="J3" t="n">
-        <v>2.11314641550054</v>
+        <v>0.00211314641550054</v>
       </c>
       <c r="K3" t="n">
-        <v>2.1949548116254</v>
+        <v>0.0021949548116254</v>
       </c>
       <c r="L3" t="n">
-        <v>2.11314641550054</v>
+        <v>0.00211314641550054</v>
       </c>
       <c r="M3" t="n">
         <v>0.962728892781039</v>
@@ -754,7 +754,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>0.35219106925009</v>
+        <v>0.00035219106925009</v>
       </c>
       <c r="P3" t="n">
         <v>0.160454815463506</v>
@@ -844,16 +844,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0049</v>
+        <v>0.0000049</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0527448869752422</v>
+        <v>0.0000527448869752422</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0950398245</v>
+        <v>0.0000950398245</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>143.469305597417</v>
+        <v>0.143469305597417</v>
       </c>
       <c r="L2" t="n">
-        <v>344.635672378902</v>
+        <v>0.344635672378902</v>
       </c>
       <c r="M2" t="n">
         <v>2.4021561332845</v>
@@ -874,7 +874,7 @@
         <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>172.317836189451</v>
+        <v>0.172317836189451</v>
       </c>
       <c r="P2" t="n">
         <v>1.20107806664225</v>
@@ -897,16 +897,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.185179649</v>
+        <v>0.000185179649</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.99332237890205</v>
+        <v>0.00199332237890205</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3604587655</v>
+        <v>0.0003604587655</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>143.469305597417</v>
+        <v>0.143469305597417</v>
       </c>
       <c r="L3" t="n">
-        <v>344.635672378902</v>
+        <v>0.344635672378902</v>
       </c>
       <c r="M3" t="n">
         <v>2.4021561332845</v>
@@ -927,7 +927,7 @@
         <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>172.317836189451</v>
+        <v>0.172317836189451</v>
       </c>
       <c r="P3" t="n">
         <v>1.20107806664225</v>
@@ -950,16 +950,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.535737882</v>
+        <v>0.000535737882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5.76682327233585</v>
+        <v>0.00576682327233585</v>
       </c>
       <c r="H4" t="n">
-        <v>0.837064955</v>
+        <v>0.000837064955</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>143.469305597417</v>
+        <v>0.143469305597417</v>
       </c>
       <c r="L4" t="n">
-        <v>344.635672378902</v>
+        <v>0.344635672378902</v>
       </c>
       <c r="M4" t="n">
         <v>2.4021561332845</v>
@@ -980,7 +980,7 @@
         <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>172.317836189451</v>
+        <v>0.172317836189451</v>
       </c>
       <c r="P4" t="n">
         <v>1.20107806664225</v>
@@ -1003,28 +1003,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>1.138392028</v>
+        <v>0.001138392028</v>
       </c>
       <c r="F5" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G5" t="n">
-        <v>12.2539507857912</v>
+        <v>0.0122539507857912</v>
       </c>
       <c r="H5" t="n">
-        <v>2.611855993</v>
+        <v>0.002611855993</v>
       </c>
       <c r="I5" t="n">
-        <v>-28.1147039074273</v>
+        <v>-0.0281147039074273</v>
       </c>
       <c r="J5" t="n">
-        <v>-168.688223444564</v>
+        <v>-0.168688223444564</v>
       </c>
       <c r="K5" t="n">
-        <v>143.469305597417</v>
+        <v>0.143469305597417</v>
       </c>
       <c r="L5" t="n">
-        <v>344.635672378902</v>
+        <v>0.344635672378902</v>
       </c>
       <c r="M5" t="n">
         <v>2.4021561332845</v>
@@ -1033,7 +1033,7 @@
         <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>172.317836189451</v>
+        <v>0.172317836189451</v>
       </c>
       <c r="P5" t="n">
         <v>1.20107806664225</v>
@@ -1056,28 +1056,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E6" t="n">
-        <v>4.085319958</v>
+        <v>0.004085319958</v>
       </c>
       <c r="F6" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G6" t="n">
-        <v>87.950914058127</v>
+        <v>0.087950914058127</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6893844865</v>
+        <v>0.0036893844865</v>
       </c>
       <c r="I6" t="n">
-        <v>39.7135036221744</v>
+        <v>0.0397135036221744</v>
       </c>
       <c r="J6" t="n">
-        <v>238.281021733046</v>
+        <v>0.238281021733046</v>
       </c>
       <c r="K6" t="n">
-        <v>143.469305597417</v>
+        <v>0.143469305597417</v>
       </c>
       <c r="L6" t="n">
-        <v>344.635672378902</v>
+        <v>0.344635672378902</v>
       </c>
       <c r="M6" t="n">
         <v>2.4021561332845</v>
@@ -1086,7 +1086,7 @@
         <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>172.317836189451</v>
+        <v>0.172317836189451</v>
       </c>
       <c r="P6" t="n">
         <v>1.20107806664225</v>
@@ -1109,28 +1109,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E7" t="n">
-        <v>3.293449015</v>
+        <v>0.003293449015</v>
       </c>
       <c r="F7" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G7" t="n">
-        <v>35.4515502152853</v>
+        <v>0.0354515502152853</v>
       </c>
       <c r="H7" t="n">
-        <v>1.6467245075</v>
+        <v>0.0016467245075</v>
       </c>
       <c r="I7" t="n">
-        <v>17.7257751076426</v>
+        <v>0.0177257751076426</v>
       </c>
       <c r="J7" t="n">
-        <v>106.354650645856</v>
+        <v>0.106354650645856</v>
       </c>
       <c r="K7" t="n">
-        <v>143.469305597417</v>
+        <v>0.143469305597417</v>
       </c>
       <c r="L7" t="n">
-        <v>344.635672378902</v>
+        <v>0.344635672378902</v>
       </c>
       <c r="M7" t="n">
         <v>2.4021561332845</v>
@@ -1139,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>172.317836189451</v>
+        <v>0.172317836189451</v>
       </c>
       <c r="P7" t="n">
         <v>1.20107806664225</v>
@@ -1229,28 +1229,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0007</v>
+        <v>0.0000007</v>
       </c>
       <c r="F2" t="n">
         <v>-16.1463939720129</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00753498385360603</v>
+        <v>0.00000753498385360603</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00712093425</v>
+        <v>0.00000712093425</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1149774098493</v>
+        <v>-0.0001149774098493</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.459909639397201</v>
+        <v>-0.000459909639397201</v>
       </c>
       <c r="K2" t="n">
-        <v>2.05837958288482</v>
+        <v>0.00205837958288482</v>
       </c>
       <c r="L2" t="n">
-        <v>4.00314694833154</v>
+        <v>0.00400314694833154</v>
       </c>
       <c r="M2" t="n">
         <v>1.94480502120077</v>
@@ -1259,7 +1259,7 @@
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33438231611051</v>
+        <v>0.00133438231611051</v>
       </c>
       <c r="P2" t="n">
         <v>0.648268340400255</v>
@@ -1282,28 +1282,28 @@
         <v>26.9106566200215</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0135418685</v>
+        <v>0.0000135418685</v>
       </c>
       <c r="F3" t="n">
         <v>16.1463939720129</v>
       </c>
       <c r="G3" t="n">
-        <v>0.364420573196986</v>
+        <v>0.000364420573196986</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01573551525</v>
+        <v>0.00001573551525</v>
       </c>
       <c r="I3" t="n">
-        <v>0.254071828579117</v>
+        <v>0.000254071828579117</v>
       </c>
       <c r="J3" t="n">
-        <v>1.01628731431647</v>
+        <v>0.00101628731431647</v>
       </c>
       <c r="K3" t="n">
-        <v>2.05837958288482</v>
+        <v>0.00205837958288482</v>
       </c>
       <c r="L3" t="n">
-        <v>4.00314694833154</v>
+        <v>0.00400314694833154</v>
       </c>
       <c r="M3" t="n">
         <v>1.94480502120077</v>
@@ -1312,7 +1312,7 @@
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33438231611051</v>
+        <v>0.00133438231611051</v>
       </c>
       <c r="P3" t="n">
         <v>0.648268340400255</v>
@@ -1335,16 +1335,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.017929162</v>
+        <v>0.000017929162</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.192994208826695</v>
+        <v>0.000192994208826695</v>
       </c>
       <c r="H4" t="n">
-        <v>0.078334396</v>
+        <v>0.000078334396</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2.05837958288482</v>
+        <v>0.00205837958288482</v>
       </c>
       <c r="L4" t="n">
-        <v>4.00314694833154</v>
+        <v>0.00400314694833154</v>
       </c>
       <c r="M4" t="n">
         <v>1.94480502120077</v>
@@ -1365,7 +1365,7 @@
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33438231611051</v>
+        <v>0.00133438231611051</v>
       </c>
       <c r="P4" t="n">
         <v>0.648268340400255</v>
@@ -1388,28 +1388,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.13873963</v>
+        <v>0.00013873963</v>
       </c>
       <c r="F5" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G5" t="n">
-        <v>1.49342981700754</v>
+        <v>0.00149342981700754</v>
       </c>
       <c r="H5" t="n">
-        <v>0.069369815</v>
+        <v>0.000069369815</v>
       </c>
       <c r="I5" t="n">
-        <v>0.746714908503768</v>
+        <v>0.000746714908503768</v>
       </c>
       <c r="J5" t="n">
-        <v>2.98685963401507</v>
+        <v>0.00298685963401507</v>
       </c>
       <c r="K5" t="n">
-        <v>2.05837958288482</v>
+        <v>0.00205837958288482</v>
       </c>
       <c r="L5" t="n">
-        <v>4.00314694833154</v>
+        <v>0.00400314694833154</v>
       </c>
       <c r="M5" t="n">
         <v>1.94480502120077</v>
@@ -1418,7 +1418,7 @@
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.33438231611051</v>
+        <v>0.00133438231611051</v>
       </c>
       <c r="P5" t="n">
         <v>0.648268340400255</v>
@@ -1508,28 +1508,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0024</v>
+        <v>0.0000024</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0258342303552207</v>
+        <v>0.0000258342303552207</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0012</v>
+        <v>0.0000012</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0129171151776103</v>
+        <v>0.0000129171151776103</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0129171151776103</v>
+        <v>0.0000129171151776103</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0258342303552207</v>
+        <v>0.0000258342303552207</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0129171151776103</v>
+        <v>0.0000129171151776103</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -1538,7 +1538,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00107642626480086</v>
+        <v>0.00000107642626480086</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -1628,28 +1628,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0027</v>
+        <v>0.0000027</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0290635091496233</v>
+        <v>0.0000290635091496233</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00135</v>
+        <v>0.00000135</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0145317545748116</v>
+        <v>0.0000145317545748116</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0145317545748116</v>
+        <v>0.0000145317545748116</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0290635091496233</v>
+        <v>0.0000290635091496233</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0145317545748116</v>
+        <v>0.0000145317545748116</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -1658,7 +1658,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00121097954790097</v>
+        <v>0.00000121097954790097</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -1748,28 +1748,28 @@
         <v>18.8374596340151</v>
       </c>
       <c r="E2" t="n">
-        <v>0.008575</v>
+        <v>0.000008575</v>
       </c>
       <c r="F2" t="n">
         <v>-45.7481162540366</v>
       </c>
       <c r="G2" t="n">
-        <v>0.161531216361679</v>
+        <v>0.000161531216361679</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0946557609</v>
+        <v>0.0000946557609</v>
       </c>
       <c r="I2" t="n">
-        <v>-4.33032275376749</v>
+        <v>-0.00433032275376749</v>
       </c>
       <c r="J2" t="n">
-        <v>-64.9548413065124</v>
+        <v>-0.0649548413065124</v>
       </c>
       <c r="K2" t="n">
-        <v>1144.08699364284</v>
+        <v>1.14408699364284</v>
       </c>
       <c r="L2" t="n">
-        <v>5127.21470022038</v>
+        <v>5.12721470022038</v>
       </c>
       <c r="M2" t="n">
         <v>4.48149024393244</v>
@@ -1778,7 +1778,7 @@
         <v>0.8</v>
       </c>
       <c r="O2" t="n">
-        <v>6409.01837527548</v>
+        <v>6.40901837527548</v>
       </c>
       <c r="P2" t="n">
         <v>5.60186280491555</v>
@@ -1801,28 +1801,28 @@
         <v>64.5855758880517</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1807365218</v>
+        <v>0.0001807365218</v>
       </c>
       <c r="F3" t="n">
         <v>-42.1600287047004</v>
       </c>
       <c r="G3" t="n">
-        <v>11.6729723444564</v>
+        <v>0.0116729723444564</v>
       </c>
       <c r="H3" t="n">
-        <v>0.436294492136111</v>
+        <v>0.000436294492136111</v>
       </c>
       <c r="I3" t="n">
-        <v>-18.3941883121611</v>
+        <v>-0.0183941883121611</v>
       </c>
       <c r="J3" t="n">
-        <v>-275.912824682417</v>
+        <v>-0.275912824682417</v>
       </c>
       <c r="K3" t="n">
-        <v>1144.08699364284</v>
+        <v>1.14408699364284</v>
       </c>
       <c r="L3" t="n">
-        <v>5127.21470022038</v>
+        <v>5.12721470022038</v>
       </c>
       <c r="M3" t="n">
         <v>4.48149024393244</v>
@@ -1831,7 +1831,7 @@
         <v>0.8</v>
       </c>
       <c r="O3" t="n">
-        <v>6409.01837527548</v>
+        <v>6.40901837527548</v>
       </c>
       <c r="P3" t="n">
         <v>5.60186280491555</v>
@@ -1854,28 +1854,28 @@
         <v>106.745604592752</v>
       </c>
       <c r="E4" t="n">
-        <v>0.691852462472222</v>
+        <v>0.000691852462472222</v>
       </c>
       <c r="F4" t="n">
         <v>19.0168640114819</v>
       </c>
       <c r="G4" t="n">
-        <v>73.8522093955817</v>
+        <v>0.0738522093955817</v>
       </c>
       <c r="H4" t="n">
-        <v>0.991894574384445</v>
+        <v>0.000991894574384445</v>
       </c>
       <c r="I4" t="n">
-        <v>18.8627242347957</v>
+        <v>0.0188627242347957</v>
       </c>
       <c r="J4" t="n">
-        <v>282.940863521935</v>
+        <v>0.282940863521935</v>
       </c>
       <c r="K4" t="n">
-        <v>1144.08699364284</v>
+        <v>1.14408699364284</v>
       </c>
       <c r="L4" t="n">
-        <v>5127.21470022038</v>
+        <v>5.12721470022038</v>
       </c>
       <c r="M4" t="n">
         <v>4.48149024393244</v>
@@ -1884,7 +1884,7 @@
         <v>0.8</v>
       </c>
       <c r="O4" t="n">
-        <v>6409.01837527548</v>
+        <v>6.40901837527548</v>
       </c>
       <c r="P4" t="n">
         <v>5.60186280491555</v>
@@ -1907,28 +1907,28 @@
         <v>87.7287405812702</v>
       </c>
       <c r="E5" t="n">
-        <v>1.29193668629667</v>
+        <v>0.00129193668629667</v>
       </c>
       <c r="F5" t="n">
         <v>-9.14962325080732</v>
       </c>
       <c r="G5" t="n">
-        <v>113.339978399546</v>
+        <v>0.113339978399546</v>
       </c>
       <c r="H5" t="n">
-        <v>1.90386604996976</v>
+        <v>0.00190386604996976</v>
       </c>
       <c r="I5" t="n">
-        <v>-17.419657077226</v>
+        <v>-0.017419657077226</v>
       </c>
       <c r="J5" t="n">
-        <v>-261.29485615839</v>
+        <v>-0.26129485615839</v>
       </c>
       <c r="K5" t="n">
-        <v>1144.08699364284</v>
+        <v>1.14408699364284</v>
       </c>
       <c r="L5" t="n">
-        <v>5127.21470022038</v>
+        <v>5.12721470022038</v>
       </c>
       <c r="M5" t="n">
         <v>4.48149024393244</v>
@@ -1937,7 +1937,7 @@
         <v>0.8</v>
       </c>
       <c r="O5" t="n">
-        <v>6409.01837527548</v>
+        <v>6.40901837527548</v>
       </c>
       <c r="P5" t="n">
         <v>5.60186280491555</v>
@@ -1960,28 +1960,28 @@
         <v>96.8783638320775</v>
       </c>
       <c r="E6" t="n">
-        <v>2.51579541364286</v>
+        <v>0.00251579541364286</v>
       </c>
       <c r="F6" t="n">
         <v>43.0570505920345</v>
       </c>
       <c r="G6" t="n">
-        <v>243.726143409965</v>
+        <v>0.243726143409965</v>
       </c>
       <c r="H6" t="n">
-        <v>2.5972424109881</v>
+        <v>0.0025972424109881</v>
       </c>
       <c r="I6" t="n">
-        <v>111.829597889692</v>
+        <v>0.111829597889692</v>
       </c>
       <c r="J6" t="n">
-        <v>1677.44396834538</v>
+        <v>1.67744396834538</v>
       </c>
       <c r="K6" t="n">
-        <v>1144.08699364284</v>
+        <v>1.14408699364284</v>
       </c>
       <c r="L6" t="n">
-        <v>5127.21470022038</v>
+        <v>5.12721470022038</v>
       </c>
       <c r="M6" t="n">
         <v>4.48149024393244</v>
@@ -1990,7 +1990,7 @@
         <v>0.8</v>
       </c>
       <c r="O6" t="n">
-        <v>6409.01837527548</v>
+        <v>6.40901837527548</v>
       </c>
       <c r="P6" t="n">
         <v>5.60186280491555</v>
@@ -2013,28 +2013,28 @@
         <v>53.8213132400431</v>
       </c>
       <c r="E7" t="n">
-        <v>2.67868940833333</v>
+        <v>0.00267868940833333</v>
       </c>
       <c r="F7" t="n">
         <v>43.0570505920344</v>
       </c>
       <c r="G7" t="n">
-        <v>144.170581718694</v>
+        <v>0.144170581718694</v>
       </c>
       <c r="H7" t="n">
-        <v>1.74050962416667</v>
+        <v>0.00174050962416667</v>
       </c>
       <c r="I7" t="n">
-        <v>74.941210943667</v>
+        <v>0.074941210943667</v>
       </c>
       <c r="J7" t="n">
-        <v>1124.11816415501</v>
+        <v>1.12411816415501</v>
       </c>
       <c r="K7" t="n">
-        <v>1144.08699364284</v>
+        <v>1.14408699364284</v>
       </c>
       <c r="L7" t="n">
-        <v>5127.21470022038</v>
+        <v>5.12721470022038</v>
       </c>
       <c r="M7" t="n">
         <v>4.48149024393244</v>
@@ -2043,7 +2043,7 @@
         <v>0.8</v>
       </c>
       <c r="O7" t="n">
-        <v>6409.01837527548</v>
+        <v>6.40901837527548</v>
       </c>
       <c r="P7" t="n">
         <v>5.60186280491555</v>
@@ -2066,16 +2066,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E8" t="n">
-        <v>0.80232984</v>
+        <v>0.00080232984</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>8.63648912809473</v>
+        <v>0.00863648912809473</v>
       </c>
       <c r="H8" t="n">
-        <v>0.970360934</v>
+        <v>0.000970360934</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -2084,10 +2084,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1144.08699364284</v>
+        <v>1.14408699364284</v>
       </c>
       <c r="L8" t="n">
-        <v>5127.21470022038</v>
+        <v>5.12721470022038</v>
       </c>
       <c r="M8" t="n">
         <v>4.48149024393244</v>
@@ -2096,7 +2096,7 @@
         <v>0.8</v>
       </c>
       <c r="O8" t="n">
-        <v>6409.01837527548</v>
+        <v>6.40901837527548</v>
       </c>
       <c r="P8" t="n">
         <v>5.60186280491555</v>
@@ -2119,16 +2119,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E9" t="n">
-        <v>1.138392028</v>
+        <v>0.001138392028</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>12.2539507857912</v>
+        <v>0.0122539507857912</v>
       </c>
       <c r="H9" t="n">
-        <v>1.3441598905</v>
+        <v>0.0013441598905</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -2137,10 +2137,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1144.08699364284</v>
+        <v>1.14408699364284</v>
       </c>
       <c r="L9" t="n">
-        <v>5127.21470022038</v>
+        <v>5.12721470022038</v>
       </c>
       <c r="M9" t="n">
         <v>4.48149024393244</v>
@@ -2149,7 +2149,7 @@
         <v>0.8</v>
       </c>
       <c r="O9" t="n">
-        <v>6409.01837527548</v>
+        <v>6.40901837527548</v>
       </c>
       <c r="P9" t="n">
         <v>5.60186280491555</v>
@@ -2172,16 +2172,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E10" t="n">
-        <v>1.549927753</v>
+        <v>0.001549927753</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>16.6838294187298</v>
+        <v>0.0166838294187298</v>
       </c>
       <c r="H10" t="n">
-        <v>1.796293866</v>
+        <v>0.001796293866</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -2190,10 +2190,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1144.08699364284</v>
+        <v>1.14408699364284</v>
       </c>
       <c r="L10" t="n">
-        <v>5127.21470022038</v>
+        <v>5.12721470022038</v>
       </c>
       <c r="M10" t="n">
         <v>4.48149024393244</v>
@@ -2202,7 +2202,7 @@
         <v>0.8</v>
       </c>
       <c r="O10" t="n">
-        <v>6409.01837527548</v>
+        <v>6.40901837527548</v>
       </c>
       <c r="P10" t="n">
         <v>5.60186280491555</v>
@@ -2225,16 +2225,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E11" t="n">
-        <v>2.042659979</v>
+        <v>0.002042659979</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>21.9877285145318</v>
+        <v>0.0219877285145318</v>
       </c>
       <c r="H11" t="n">
-        <v>3.0522726745</v>
+        <v>0.0030522726745</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1144.08699364284</v>
+        <v>1.14408699364284</v>
       </c>
       <c r="L11" t="n">
-        <v>5127.21470022038</v>
+        <v>5.12721470022038</v>
       </c>
       <c r="M11" t="n">
         <v>4.48149024393244</v>
@@ -2255,7 +2255,7 @@
         <v>0.8</v>
       </c>
       <c r="O11" t="n">
-        <v>6409.01837527548</v>
+        <v>6.40901837527548</v>
       </c>
       <c r="P11" t="n">
         <v>5.60186280491555</v>
@@ -2278,28 +2278,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E12" t="n">
-        <v>4.06188537</v>
+        <v>0.00406188537</v>
       </c>
       <c r="F12" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G12" t="n">
-        <v>43.7232009687836</v>
+        <v>0.0437232009687836</v>
       </c>
       <c r="H12" t="n">
-        <v>6.963265961</v>
+        <v>0.006963265961</v>
       </c>
       <c r="I12" t="n">
-        <v>-74.9544236921421</v>
+        <v>-0.0749544236921421</v>
       </c>
       <c r="J12" t="n">
-        <v>-1124.31635538213</v>
+        <v>-1.12431635538213</v>
       </c>
       <c r="K12" t="n">
-        <v>1144.08699364284</v>
+        <v>1.14408699364284</v>
       </c>
       <c r="L12" t="n">
-        <v>5127.21470022038</v>
+        <v>5.12721470022038</v>
       </c>
       <c r="M12" t="n">
         <v>4.48149024393244</v>
@@ -2308,7 +2308,7 @@
         <v>0.8</v>
       </c>
       <c r="O12" t="n">
-        <v>6409.01837527548</v>
+        <v>6.40901837527548</v>
       </c>
       <c r="P12" t="n">
         <v>5.60186280491555</v>
@@ -2331,28 +2331,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E13" t="n">
-        <v>9.864646552</v>
+        <v>0.009864646552</v>
       </c>
       <c r="F13" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G13" t="n">
-        <v>212.371292831001</v>
+        <v>0.212371292831001</v>
       </c>
       <c r="H13" t="n">
-        <v>7.887103496</v>
+        <v>0.007887103496</v>
       </c>
       <c r="I13" t="n">
-        <v>84.8988535629709</v>
+        <v>0.084898853562971</v>
       </c>
       <c r="J13" t="n">
-        <v>1273.48280344456</v>
+        <v>1.27348280344456</v>
       </c>
       <c r="K13" t="n">
-        <v>1144.08699364284</v>
+        <v>1.14408699364284</v>
       </c>
       <c r="L13" t="n">
-        <v>5127.21470022038</v>
+        <v>5.12721470022038</v>
       </c>
       <c r="M13" t="n">
         <v>4.48149024393244</v>
@@ -2361,7 +2361,7 @@
         <v>0.8</v>
       </c>
       <c r="O13" t="n">
-        <v>6409.01837527548</v>
+        <v>6.40901837527548</v>
       </c>
       <c r="P13" t="n">
         <v>5.60186280491555</v>
@@ -2384,16 +2384,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E14" t="n">
-        <v>5.90956044</v>
+        <v>0.00590956044</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>63.6120607104413</v>
+        <v>0.0636120607104413</v>
       </c>
       <c r="H14" t="n">
-        <v>6.45391313</v>
+        <v>0.00645391313</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -2402,10 +2402,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1144.08699364284</v>
+        <v>1.14408699364284</v>
       </c>
       <c r="L14" t="n">
-        <v>5127.21470022038</v>
+        <v>5.12721470022038</v>
       </c>
       <c r="M14" t="n">
         <v>4.48149024393244</v>
@@ -2414,7 +2414,7 @@
         <v>0.8</v>
       </c>
       <c r="O14" t="n">
-        <v>6409.01837527548</v>
+        <v>6.40901837527548</v>
       </c>
       <c r="P14" t="n">
         <v>5.60186280491555</v>
@@ -2437,16 +2437,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E15" t="n">
-        <v>6.99826582</v>
+        <v>0.00699826582</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>75.3311713670614</v>
+        <v>0.0753311713670614</v>
       </c>
       <c r="H15" t="n">
-        <v>8.263223902</v>
+        <v>0.008263223902</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -2455,10 +2455,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1144.08699364284</v>
+        <v>1.14408699364284</v>
       </c>
       <c r="L15" t="n">
-        <v>5127.21470022038</v>
+        <v>5.12721470022038</v>
       </c>
       <c r="M15" t="n">
         <v>4.48149024393244</v>
@@ -2467,7 +2467,7 @@
         <v>0.8</v>
       </c>
       <c r="O15" t="n">
-        <v>6409.01837527548</v>
+        <v>6.40901837527548</v>
       </c>
       <c r="P15" t="n">
         <v>5.60186280491555</v>
@@ -2490,28 +2490,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E16" t="n">
-        <v>9.528181984</v>
+        <v>0.009528181984</v>
       </c>
       <c r="F16" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G16" t="n">
-        <v>102.5638534338</v>
+        <v>0.1025638534338</v>
       </c>
       <c r="H16" t="n">
-        <v>4.764090992</v>
+        <v>0.004764090992</v>
       </c>
       <c r="I16" t="n">
-        <v>51.2819267168999</v>
+        <v>0.0512819267168999</v>
       </c>
       <c r="J16" t="n">
-        <v>769.228900753498</v>
+        <v>0.769228900753498</v>
       </c>
       <c r="K16" t="n">
-        <v>1144.08699364284</v>
+        <v>1.14408699364284</v>
       </c>
       <c r="L16" t="n">
-        <v>5127.21470022038</v>
+        <v>5.12721470022038</v>
       </c>
       <c r="M16" t="n">
         <v>4.48149024393244</v>
@@ -2520,7 +2520,7 @@
         <v>0.8</v>
       </c>
       <c r="O16" t="n">
-        <v>6409.01837527548</v>
+        <v>6.40901837527548</v>
       </c>
       <c r="P16" t="n">
         <v>5.60186280491555</v>
@@ -2610,16 +2610,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.003865186</v>
+        <v>0.000003865186</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0416058772874058</v>
+        <v>0.0000416058772874058</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0100845975</v>
+        <v>0.0000100845975</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.217106512378902</v>
+        <v>0.000217106512378902</v>
       </c>
       <c r="L2" t="n">
-        <v>0.175500635091496</v>
+        <v>0.000175500635091496</v>
       </c>
       <c r="M2" t="n">
         <v>0.808361910329093</v>
@@ -2640,7 +2640,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0292501058485827</v>
+        <v>0.0000292501058485827</v>
       </c>
       <c r="P2" t="n">
         <v>0.134726985054849</v>
@@ -2663,28 +2663,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.016304009</v>
+        <v>0.000016304009</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>0.175500635091496</v>
+        <v>0.000175500635091496</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0081520045</v>
+        <v>0.0000081520045</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0877503175457481</v>
+        <v>0.0000877503175457481</v>
       </c>
       <c r="J3" t="n">
-        <v>0.175500635091496</v>
+        <v>0.000175500635091496</v>
       </c>
       <c r="K3" t="n">
-        <v>0.217106512378902</v>
+        <v>0.000217106512378902</v>
       </c>
       <c r="L3" t="n">
-        <v>0.175500635091496</v>
+        <v>0.000175500635091496</v>
       </c>
       <c r="M3" t="n">
         <v>0.808361910329093</v>
@@ -2693,7 +2693,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0292501058485827</v>
+        <v>0.0000292501058485827</v>
       </c>
       <c r="P3" t="n">
         <v>0.134726985054849</v>
@@ -2783,28 +2783,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0043</v>
+        <v>0.0000043</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.046286329386437</v>
+        <v>0.000046286329386437</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00215</v>
+        <v>0.00000215</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0231431646932185</v>
+        <v>0.0000231431646932185</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0231431646932185</v>
+        <v>0.0000231431646932185</v>
       </c>
       <c r="K2" t="n">
-        <v>0.046286329386437</v>
+        <v>0.000046286329386437</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0231431646932185</v>
+        <v>0.0000231431646932185</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -2813,7 +2813,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00192859705776821</v>
+        <v>0.00000192859705776821</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -2903,28 +2903,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>3.526854435</v>
+        <v>0.003526854435</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>37.963987459634</v>
+        <v>0.037963987459634</v>
       </c>
       <c r="H2" t="n">
-        <v>1.7634272175</v>
+        <v>0.0017634272175</v>
       </c>
       <c r="I2" t="n">
-        <v>18.981993729817</v>
+        <v>0.018981993729817</v>
       </c>
       <c r="J2" t="n">
-        <v>18.981993729817</v>
+        <v>0.018981993729817</v>
       </c>
       <c r="K2" t="n">
-        <v>37.963987459634</v>
+        <v>0.037963987459634</v>
       </c>
       <c r="L2" t="n">
-        <v>18.981993729817</v>
+        <v>0.018981993729817</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -2933,7 +2933,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>1.58183281081808</v>
+        <v>0.00158183281081808</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -3023,16 +3023,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0164</v>
+        <v>0.0000164</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.176533907427341</v>
+        <v>0.000176533907427341</v>
       </c>
       <c r="H2" t="n">
-        <v>0.070649751</v>
+        <v>0.000070649751</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3041,10 +3041,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>25.6136489881593</v>
+        <v>0.0256136489881593</v>
       </c>
       <c r="L2" t="n">
-        <v>39.3678114962325</v>
+        <v>0.0393678114962325</v>
       </c>
       <c r="M2" t="n">
         <v>1.53698567175772</v>
@@ -3053,7 +3053,7 @@
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>13.1226038320775</v>
+        <v>0.0131226038320775</v>
       </c>
       <c r="P2" t="n">
         <v>0.512328557252574</v>
@@ -3076,16 +3076,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.124899502</v>
+        <v>0.000124899502</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.34445104413348</v>
+        <v>0.00134445104413348</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2672365735</v>
+        <v>0.0002672365735</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>25.6136489881593</v>
+        <v>0.0256136489881593</v>
       </c>
       <c r="L3" t="n">
-        <v>39.3678114962325</v>
+        <v>0.0393678114962325</v>
       </c>
       <c r="M3" t="n">
         <v>1.53698567175772</v>
@@ -3106,7 +3106,7 @@
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>13.1226038320775</v>
+        <v>0.0131226038320775</v>
       </c>
       <c r="P3" t="n">
         <v>0.512328557252574</v>
@@ -3129,16 +3129,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.409573645</v>
+        <v>0.000409573645</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.40875828848224</v>
+        <v>0.00440875828848224</v>
       </c>
       <c r="H4" t="n">
-        <v>1.1191042445</v>
+        <v>0.0011191042445</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -3147,10 +3147,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>25.6136489881593</v>
+        <v>0.0256136489881593</v>
       </c>
       <c r="L4" t="n">
-        <v>39.3678114962325</v>
+        <v>0.0393678114962325</v>
       </c>
       <c r="M4" t="n">
         <v>1.53698567175772</v>
@@ -3159,7 +3159,7 @@
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>13.1226038320775</v>
+        <v>0.0131226038320775</v>
       </c>
       <c r="P4" t="n">
         <v>0.512328557252574</v>
@@ -3182,28 +3182,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>1.828634844</v>
+        <v>0.001828634844</v>
       </c>
       <c r="F5" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G5" t="n">
-        <v>19.6839057481163</v>
+        <v>0.0196839057481163</v>
       </c>
       <c r="H5" t="n">
-        <v>0.914317422</v>
+        <v>0.000914317422</v>
       </c>
       <c r="I5" t="n">
-        <v>9.84195287405813</v>
+        <v>0.00984195287405813</v>
       </c>
       <c r="J5" t="n">
-        <v>39.3678114962325</v>
+        <v>0.0393678114962325</v>
       </c>
       <c r="K5" t="n">
-        <v>25.6136489881593</v>
+        <v>0.0256136489881593</v>
       </c>
       <c r="L5" t="n">
-        <v>39.3678114962325</v>
+        <v>0.0393678114962325</v>
       </c>
       <c r="M5" t="n">
         <v>1.53698567175772</v>
@@ -3212,7 +3212,7 @@
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>13.1226038320775</v>
+        <v>0.0131226038320775</v>
       </c>
       <c r="P5" t="n">
         <v>0.512328557252574</v>
@@ -3302,16 +3302,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.056470552</v>
+        <v>0.000056470552</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.607863853606028</v>
+        <v>0.000607863853606028</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0794330455</v>
+        <v>0.0000794330455</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3320,10 +3320,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.99546700753498</v>
+        <v>0.00699546700753498</v>
       </c>
       <c r="L2" t="n">
-        <v>7.92808601722282</v>
+        <v>0.00792808601722282</v>
       </c>
       <c r="M2" t="n">
         <v>1.13331761963616</v>
@@ -3332,7 +3332,7 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.9820215043057</v>
+        <v>0.00198202150430571</v>
       </c>
       <c r="P2" t="n">
         <v>0.283329404909039</v>
@@ -3355,16 +3355,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.102395539</v>
+        <v>0.000102395539</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.10221247578041</v>
+        <v>0.00110221247578041</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2967041665</v>
+        <v>0.0002967041665</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -3373,10 +3373,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>6.99546700753498</v>
+        <v>0.00699546700753498</v>
       </c>
       <c r="L3" t="n">
-        <v>7.92808601722282</v>
+        <v>0.00792808601722282</v>
       </c>
       <c r="M3" t="n">
         <v>1.13331761963616</v>
@@ -3385,7 +3385,7 @@
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.9820215043057</v>
+        <v>0.00198202150430571</v>
       </c>
       <c r="P3" t="n">
         <v>0.283329404909039</v>
@@ -3408,28 +3408,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.491012794</v>
+        <v>0.000491012794</v>
       </c>
       <c r="F4" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>5.28539067814855</v>
+        <v>0.00528539067814855</v>
       </c>
       <c r="H4" t="n">
-        <v>0.245506397</v>
+        <v>0.000245506397</v>
       </c>
       <c r="I4" t="n">
-        <v>2.64269533907427</v>
+        <v>0.00264269533907427</v>
       </c>
       <c r="J4" t="n">
-        <v>7.92808601722282</v>
+        <v>0.00792808601722282</v>
       </c>
       <c r="K4" t="n">
-        <v>6.99546700753498</v>
+        <v>0.00699546700753498</v>
       </c>
       <c r="L4" t="n">
-        <v>7.92808601722282</v>
+        <v>0.00792808601722282</v>
       </c>
       <c r="M4" t="n">
         <v>1.13331761963616</v>
@@ -3438,7 +3438,7 @@
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.9820215043057</v>
+        <v>0.00198202150430571</v>
       </c>
       <c r="P4" t="n">
         <v>0.283329404909039</v>
@@ -3528,28 +3528,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0017851822</v>
+        <v>0.0000017851822</v>
       </c>
       <c r="F2" t="n">
         <v>-3.5880875493362</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0192161700753498</v>
+        <v>0.0000192161700753498</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00530543166833333</v>
+        <v>0.00000530543166833333</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0190363533130008</v>
+        <v>-0.0000190363533130008</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.152290826504007</v>
+        <v>-0.000152290826504007</v>
       </c>
       <c r="K2" t="n">
-        <v>13.0073308473508</v>
+        <v>0.0130073308473508</v>
       </c>
       <c r="L2" t="n">
-        <v>25.5274612493242</v>
+        <v>0.0255274612493242</v>
       </c>
       <c r="M2" t="n">
         <v>1.96254416443351</v>
@@ -3558,7 +3558,7 @@
         <v>1.5</v>
       </c>
       <c r="O2" t="n">
-        <v>17.0183074995495</v>
+        <v>0.0170183074995495</v>
       </c>
       <c r="P2" t="n">
         <v>1.308362776289</v>
@@ -3581,28 +3581,28 @@
         <v>14.3523501973448</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00882568113666667</v>
+        <v>0.00000882568113666667</v>
       </c>
       <c r="F3" t="n">
         <v>3.5880875493362</v>
       </c>
       <c r="G3" t="n">
-        <v>0.12666926640354</v>
+        <v>0.00012666926640354</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0127993549733333</v>
+        <v>0.0000127993549733333</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0459252062193518</v>
+        <v>0.0000459252062193518</v>
       </c>
       <c r="J3" t="n">
-        <v>0.367401649754814</v>
+        <v>0.000367401649754814</v>
       </c>
       <c r="K3" t="n">
-        <v>13.0073308473508</v>
+        <v>0.0130073308473508</v>
       </c>
       <c r="L3" t="n">
-        <v>25.5274612493242</v>
+        <v>0.0255274612493242</v>
       </c>
       <c r="M3" t="n">
         <v>1.96254416443351</v>
@@ -3611,7 +3611,7 @@
         <v>1.5</v>
       </c>
       <c r="O3" t="n">
-        <v>17.0183074995495</v>
+        <v>0.0170183074995495</v>
       </c>
       <c r="P3" t="n">
         <v>1.308362776289</v>
@@ -3634,16 +3634,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01677302881</v>
+        <v>0.00001677302881</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.180549287513455</v>
+        <v>0.000180549287513455</v>
       </c>
       <c r="H4" t="n">
-        <v>0.025636735245</v>
+        <v>0.000025636735245</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -3652,10 +3652,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>13.0073308473508</v>
+        <v>0.0130073308473508</v>
       </c>
       <c r="L4" t="n">
-        <v>25.5274612493242</v>
+        <v>0.0255274612493242</v>
       </c>
       <c r="M4" t="n">
         <v>1.96254416443351</v>
@@ -3664,7 +3664,7 @@
         <v>1.5</v>
       </c>
       <c r="O4" t="n">
-        <v>17.0183074995495</v>
+        <v>0.0170183074995495</v>
       </c>
       <c r="P4" t="n">
         <v>1.308362776289</v>
@@ -3687,16 +3687,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03450044168</v>
+        <v>0.00003450044168</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.371371815715824</v>
+        <v>0.000371371815715824</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06842788624</v>
+        <v>0.00006842788624</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -3705,10 +3705,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>13.0073308473508</v>
+        <v>0.0130073308473508</v>
       </c>
       <c r="L5" t="n">
-        <v>25.5274612493242</v>
+        <v>0.0255274612493242</v>
       </c>
       <c r="M5" t="n">
         <v>1.96254416443351</v>
@@ -3717,7 +3717,7 @@
         <v>1.5</v>
       </c>
       <c r="O5" t="n">
-        <v>17.0183074995495</v>
+        <v>0.0170183074995495</v>
       </c>
       <c r="P5" t="n">
         <v>1.308362776289</v>
@@ -3740,16 +3740,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1023553308</v>
+        <v>0.0001023553308</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.10177966415501</v>
+        <v>0.00110177966415501</v>
       </c>
       <c r="H6" t="n">
-        <v>0.05905737919</v>
+        <v>0.00005905737919</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -3758,10 +3758,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>13.0073308473508</v>
+        <v>0.0130073308473508</v>
       </c>
       <c r="L6" t="n">
-        <v>25.5274612493242</v>
+        <v>0.0255274612493242</v>
       </c>
       <c r="M6" t="n">
         <v>1.96254416443351</v>
@@ -3770,7 +3770,7 @@
         <v>1.5</v>
       </c>
       <c r="O6" t="n">
-        <v>17.0183074995495</v>
+        <v>0.0170183074995495</v>
       </c>
       <c r="P6" t="n">
         <v>1.308362776289</v>
@@ -3793,16 +3793,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01575942758</v>
+        <v>0.00001575942758</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.169638617653391</v>
+        <v>0.000169638617653391</v>
       </c>
       <c r="H7" t="n">
-        <v>0.22842854659</v>
+        <v>0.00022842854659</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -3811,10 +3811,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>13.0073308473508</v>
+        <v>0.0130073308473508</v>
       </c>
       <c r="L7" t="n">
-        <v>25.5274612493242</v>
+        <v>0.0255274612493242</v>
       </c>
       <c r="M7" t="n">
         <v>1.96254416443351</v>
@@ -3823,7 +3823,7 @@
         <v>1.5</v>
       </c>
       <c r="O7" t="n">
-        <v>17.0183074995495</v>
+        <v>0.0170183074995495</v>
       </c>
       <c r="P7" t="n">
         <v>1.308362776289</v>
@@ -3846,16 +3846,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4410976656</v>
+        <v>0.0004410976656</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.74809112594187</v>
+        <v>0.00474809112594187</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5127200249</v>
+        <v>0.0005127200249</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>13.0073308473508</v>
+        <v>0.0130073308473508</v>
       </c>
       <c r="L8" t="n">
-        <v>25.5274612493242</v>
+        <v>0.0255274612493242</v>
       </c>
       <c r="M8" t="n">
         <v>1.96254416443351</v>
@@ -3876,7 +3876,7 @@
         <v>1.5</v>
       </c>
       <c r="O8" t="n">
-        <v>17.0183074995495</v>
+        <v>0.0170183074995495</v>
       </c>
       <c r="P8" t="n">
         <v>1.308362776289</v>
@@ -3899,28 +3899,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5843423842</v>
+        <v>0.0005843423842</v>
       </c>
       <c r="F9" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G9" t="n">
-        <v>6.29001489989236</v>
+        <v>0.00629001489989236</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2921711921</v>
+        <v>0.0002921711921</v>
       </c>
       <c r="I9" t="n">
-        <v>3.14500744994618</v>
+        <v>0.00314500744994618</v>
       </c>
       <c r="J9" t="n">
-        <v>25.1600595995694</v>
+        <v>0.0251600595995694</v>
       </c>
       <c r="K9" t="n">
-        <v>13.0073308473508</v>
+        <v>0.0130073308473508</v>
       </c>
       <c r="L9" t="n">
-        <v>25.5274612493242</v>
+        <v>0.0255274612493242</v>
       </c>
       <c r="M9" t="n">
         <v>1.96254416443351</v>
@@ -3929,7 +3929,7 @@
         <v>1.5</v>
       </c>
       <c r="O9" t="n">
-        <v>17.0183074995495</v>
+        <v>0.0170183074995495</v>
       </c>
       <c r="P9" t="n">
         <v>1.308362776289</v>
@@ -4019,28 +4019,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>1.656720669</v>
+        <v>0.001656720669</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>17.8333764155005</v>
+        <v>0.0178333764155005</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8283603345</v>
+        <v>0.0008283603345</v>
       </c>
       <c r="I2" t="n">
-        <v>8.91668820775027</v>
+        <v>0.00891668820775027</v>
       </c>
       <c r="J2" t="n">
-        <v>8.91668820775027</v>
+        <v>0.00891668820775027</v>
       </c>
       <c r="K2" t="n">
-        <v>17.8333764155005</v>
+        <v>0.0178333764155005</v>
       </c>
       <c r="L2" t="n">
-        <v>8.91668820775027</v>
+        <v>0.00891668820775027</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -4049,7 +4049,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.743057350645856</v>
+        <v>0.000743057350645856</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -4139,16 +4139,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.48024347</v>
+        <v>0.00048024347</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.16946684607105</v>
+        <v>0.00516946684607104</v>
       </c>
       <c r="H2" t="n">
-        <v>1.1455755515</v>
+        <v>0.0011455755515</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -4157,10 +4157,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.6625522389666</v>
+        <v>0.0246625522389666</v>
       </c>
       <c r="L2" t="n">
-        <v>19.4930853928956</v>
+        <v>0.0194930853928956</v>
       </c>
       <c r="M2" t="n">
         <v>0.790392056913585</v>
@@ -4169,7 +4169,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>3.2488475654826</v>
+        <v>0.0032488475654826</v>
       </c>
       <c r="P2" t="n">
         <v>0.131732009485598</v>
@@ -4192,28 +4192,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>1.810907633</v>
+        <v>0.001810907633</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>19.4930853928956</v>
+        <v>0.0194930853928956</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9054538165</v>
+        <v>0.0009054538165</v>
       </c>
       <c r="I3" t="n">
-        <v>9.7465426964478</v>
+        <v>0.00974654269644779</v>
       </c>
       <c r="J3" t="n">
-        <v>19.4930853928956</v>
+        <v>0.0194930853928956</v>
       </c>
       <c r="K3" t="n">
-        <v>24.6625522389666</v>
+        <v>0.0246625522389666</v>
       </c>
       <c r="L3" t="n">
-        <v>19.4930853928956</v>
+        <v>0.0194930853928956</v>
       </c>
       <c r="M3" t="n">
         <v>0.790392056913585</v>
@@ -4222,7 +4222,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>3.2488475654826</v>
+        <v>0.0032488475654826</v>
       </c>
       <c r="P3" t="n">
         <v>0.131732009485598</v>
@@ -4312,28 +4312,28 @@
         <v>35.880875493362</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0333333333333333</v>
+        <v>0.0000333333333333333</v>
       </c>
       <c r="F2" t="n">
         <v>3.5880875493362</v>
       </c>
       <c r="G2" t="n">
-        <v>1.19602918311207</v>
+        <v>0.00119602918311207</v>
       </c>
       <c r="H2" t="n">
-        <v>0.111340287666667</v>
+        <v>0.000111340287666667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.399498699916278</v>
+        <v>0.000399498699916278</v>
       </c>
       <c r="J2" t="n">
-        <v>1.19849609974883</v>
+        <v>0.00119849609974883</v>
       </c>
       <c r="K2" t="n">
-        <v>19.9088320464059</v>
+        <v>0.0199088320464059</v>
       </c>
       <c r="L2" t="n">
-        <v>64.0051828166487</v>
+        <v>0.0640051828166487</v>
       </c>
       <c r="M2" t="n">
         <v>3.21491399733835</v>
@@ -4342,7 +4342,7 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>16.0012957041622</v>
+        <v>0.0160012957041622</v>
       </c>
       <c r="P2" t="n">
         <v>0.803728499334587</v>
@@ -4365,28 +4365,28 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E3" t="n">
-        <v>0.189347242</v>
+        <v>0.000189347242</v>
       </c>
       <c r="F3" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G3" t="n">
-        <v>6.11455033369214</v>
+        <v>0.00611455033369214</v>
       </c>
       <c r="H3" t="n">
-        <v>0.679862451</v>
+        <v>0.000679862451</v>
       </c>
       <c r="I3" t="n">
-        <v>14.6364359741658</v>
+        <v>0.0146364359741658</v>
       </c>
       <c r="J3" t="n">
-        <v>43.9093079224973</v>
+        <v>0.0439093079224973</v>
       </c>
       <c r="K3" t="n">
-        <v>19.9088320464059</v>
+        <v>0.0199088320464059</v>
       </c>
       <c r="L3" t="n">
-        <v>64.0051828166487</v>
+        <v>0.0640051828166487</v>
       </c>
       <c r="M3" t="n">
         <v>3.21491399733835</v>
@@ -4395,7 +4395,7 @@
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>16.0012957041622</v>
+        <v>0.0160012957041622</v>
       </c>
       <c r="P3" t="n">
         <v>0.803728499334587</v>
@@ -4418,28 +4418,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>1.17037766</v>
+        <v>0.00117037766</v>
       </c>
       <c r="F4" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>12.5982525296017</v>
+        <v>0.0125982525296017</v>
       </c>
       <c r="H4" t="n">
-        <v>0.58518883</v>
+        <v>0.00058518883</v>
       </c>
       <c r="I4" t="n">
-        <v>6.29912626480086</v>
+        <v>0.00629912626480086</v>
       </c>
       <c r="J4" t="n">
-        <v>18.8973787944026</v>
+        <v>0.0188973787944026</v>
       </c>
       <c r="K4" t="n">
-        <v>19.9088320464059</v>
+        <v>0.0199088320464059</v>
       </c>
       <c r="L4" t="n">
-        <v>64.0051828166487</v>
+        <v>0.0640051828166487</v>
       </c>
       <c r="M4" t="n">
         <v>3.21491399733835</v>
@@ -4448,7 +4448,7 @@
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>16.0012957041622</v>
+        <v>0.0160012957041622</v>
       </c>
       <c r="P4" t="n">
         <v>0.803728499334587</v>
@@ -4538,28 +4538,28 @@
         <v>229.637603157517</v>
       </c>
       <c r="E2" t="n">
-        <v>0.064</v>
+        <v>0.000064</v>
       </c>
       <c r="F2" t="n">
         <v>-520.631503408683</v>
       </c>
       <c r="G2" t="n">
-        <v>14.6968066020811</v>
+        <v>0.0146968066020811</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7053128343</v>
+        <v>0.0007053128343</v>
       </c>
       <c r="I2" t="n">
-        <v>-367.208081295049</v>
+        <v>-0.367208081295049</v>
       </c>
       <c r="J2" t="n">
-        <v>-2937.66465036039</v>
+        <v>-2.93766465036039</v>
       </c>
       <c r="K2" t="n">
-        <v>8251.30608648922</v>
+        <v>8.25130608648922</v>
       </c>
       <c r="L2" t="n">
-        <v>24641.8094867618</v>
+        <v>24.6418094867618</v>
       </c>
       <c r="M2" t="n">
         <v>2.98641320882649</v>
@@ -4568,7 +4568,7 @@
         <v>1.5</v>
       </c>
       <c r="O2" t="n">
-        <v>16427.8729911745</v>
+        <v>16.4278729911745</v>
       </c>
       <c r="P2" t="n">
         <v>1.99094213921766</v>
@@ -4591,28 +4591,28 @@
         <v>750.2691065662</v>
       </c>
       <c r="E3" t="n">
-        <v>1.3466256686</v>
+        <v>0.0013466256686</v>
       </c>
       <c r="F3" t="n">
         <v>125.941872981701</v>
       </c>
       <c r="G3" t="n">
-        <v>1010.33163725963</v>
+        <v>1.01033163725963</v>
       </c>
       <c r="H3" t="n">
-        <v>1.98257457727283</v>
+        <v>0.00198257457727283</v>
       </c>
       <c r="I3" t="n">
-        <v>249.689155587644</v>
+        <v>0.249689155587644</v>
       </c>
       <c r="J3" t="n">
-        <v>1997.51324470115</v>
+        <v>1.99751324470115</v>
       </c>
       <c r="K3" t="n">
-        <v>8251.30608648922</v>
+        <v>8.25130608648922</v>
       </c>
       <c r="L3" t="n">
-        <v>24641.8094867618</v>
+        <v>24.6418094867618</v>
       </c>
       <c r="M3" t="n">
         <v>2.98641320882649</v>
@@ -4621,7 +4621,7 @@
         <v>1.5</v>
       </c>
       <c r="O3" t="n">
-        <v>16427.8729911745</v>
+        <v>16.4278729911745</v>
       </c>
       <c r="P3" t="n">
         <v>1.99094213921766</v>
@@ -4644,28 +4644,28 @@
         <v>624.3272335845</v>
       </c>
       <c r="E4" t="n">
-        <v>2.61852348594566</v>
+        <v>0.00261852348594566</v>
       </c>
       <c r="F4" t="n">
         <v>137.78256189451</v>
       </c>
       <c r="G4" t="n">
-        <v>1634.81552405649</v>
+        <v>1.63481552405649</v>
       </c>
       <c r="H4" t="n">
-        <v>3.48415070549599</v>
+        <v>0.00348415070549599</v>
       </c>
       <c r="I4" t="n">
-        <v>480.055210229802</v>
+        <v>0.480055210229802</v>
       </c>
       <c r="J4" t="n">
-        <v>3840.44168183842</v>
+        <v>3.84044168183842</v>
       </c>
       <c r="K4" t="n">
-        <v>8251.30608648922</v>
+        <v>8.25130608648922</v>
       </c>
       <c r="L4" t="n">
-        <v>24641.8094867618</v>
+        <v>24.6418094867618</v>
       </c>
       <c r="M4" t="n">
         <v>2.98641320882649</v>
@@ -4674,7 +4674,7 @@
         <v>1.5</v>
       </c>
       <c r="O4" t="n">
-        <v>16427.8729911745</v>
+        <v>16.4278729911745</v>
       </c>
       <c r="P4" t="n">
         <v>1.99094213921766</v>
@@ -4697,28 +4697,28 @@
         <v>486.544671689989</v>
       </c>
       <c r="E5" t="n">
-        <v>4.34977792504631</v>
+        <v>0.00434977792504631</v>
       </c>
       <c r="F5" t="n">
         <v>75.3498385360602</v>
       </c>
       <c r="G5" t="n">
-        <v>2116.36127246602</v>
+        <v>2.11636127246602</v>
       </c>
       <c r="H5" t="n">
-        <v>5.67621397872752</v>
+        <v>0.00567621397872752</v>
       </c>
       <c r="I5" t="n">
-        <v>427.701806793247</v>
+        <v>0.427701806793246</v>
       </c>
       <c r="J5" t="n">
-        <v>3421.61445434597</v>
+        <v>3.42161445434597</v>
       </c>
       <c r="K5" t="n">
-        <v>8251.30608648922</v>
+        <v>8.25130608648922</v>
       </c>
       <c r="L5" t="n">
-        <v>24641.8094867618</v>
+        <v>24.6418094867618</v>
       </c>
       <c r="M5" t="n">
         <v>2.98641320882649</v>
@@ -4727,7 +4727,7 @@
         <v>1.5</v>
       </c>
       <c r="O5" t="n">
-        <v>16427.8729911745</v>
+        <v>16.4278729911745</v>
       </c>
       <c r="P5" t="n">
         <v>1.99094213921766</v>
@@ -4750,28 +4750,28 @@
         <v>411.194833153929</v>
       </c>
       <c r="E6" t="n">
-        <v>7.00265003240872</v>
+        <v>0.00700265003240872</v>
       </c>
       <c r="F6" t="n">
         <v>290.635091496233</v>
       </c>
       <c r="G6" t="n">
-        <v>2879.45351171166</v>
+        <v>2.87945351171166</v>
       </c>
       <c r="H6" t="n">
-        <v>5.59856800042936</v>
+        <v>0.00559856800042936</v>
       </c>
       <c r="I6" t="n">
-        <v>1627.14032305267</v>
+        <v>1.62714032305267</v>
       </c>
       <c r="J6" t="n">
-        <v>13017.1225844213</v>
+        <v>13.0171225844213</v>
       </c>
       <c r="K6" t="n">
-        <v>8251.30608648922</v>
+        <v>8.25130608648922</v>
       </c>
       <c r="L6" t="n">
-        <v>24641.8094867618</v>
+        <v>24.6418094867618</v>
       </c>
       <c r="M6" t="n">
         <v>2.98641320882649</v>
@@ -4780,7 +4780,7 @@
         <v>1.5</v>
       </c>
       <c r="O6" t="n">
-        <v>16427.8729911745</v>
+        <v>16.4278729911745</v>
       </c>
       <c r="P6" t="n">
         <v>1.99094213921766</v>
@@ -4803,28 +4803,28 @@
         <v>120.559741657696</v>
       </c>
       <c r="E7" t="n">
-        <v>4.19448596845</v>
+        <v>0.00419448596845</v>
       </c>
       <c r="F7" t="n">
         <v>88.2669537136706</v>
       </c>
       <c r="G7" t="n">
-        <v>505.686144743165</v>
+        <v>0.505686144743165</v>
       </c>
       <c r="H7" t="n">
-        <v>2.948198060475</v>
+        <v>0.002948198060475</v>
       </c>
       <c r="I7" t="n">
-        <v>260.22846174268</v>
+        <v>0.26022846174268</v>
       </c>
       <c r="J7" t="n">
-        <v>2081.82769394144</v>
+        <v>2.08182769394144</v>
       </c>
       <c r="K7" t="n">
-        <v>8251.30608648922</v>
+        <v>8.25130608648922</v>
       </c>
       <c r="L7" t="n">
-        <v>24641.8094867618</v>
+        <v>24.6418094867618</v>
       </c>
       <c r="M7" t="n">
         <v>2.98641320882649</v>
@@ -4833,7 +4833,7 @@
         <v>1.5</v>
       </c>
       <c r="O7" t="n">
-        <v>16427.8729911745</v>
+        <v>16.4278729911745</v>
       </c>
       <c r="P7" t="n">
         <v>1.99094213921766</v>
@@ -4856,28 +4856,28 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7019101525</v>
+        <v>0.0017019101525</v>
       </c>
       <c r="F8" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G8" t="n">
-        <v>54.9594236544672</v>
+        <v>0.0549594236544672</v>
       </c>
       <c r="H8" t="n">
-        <v>1.6638710915</v>
+        <v>0.0016638710915</v>
       </c>
       <c r="I8" t="n">
-        <v>17.9103454413348</v>
+        <v>0.0179103454413348</v>
       </c>
       <c r="J8" t="n">
-        <v>143.282763530678</v>
+        <v>0.143282763530678</v>
       </c>
       <c r="K8" t="n">
-        <v>8251.30608648922</v>
+        <v>8.25130608648922</v>
       </c>
       <c r="L8" t="n">
-        <v>24641.8094867618</v>
+        <v>24.6418094867618</v>
       </c>
       <c r="M8" t="n">
         <v>2.98641320882649</v>
@@ -4886,7 +4886,7 @@
         <v>1.5</v>
       </c>
       <c r="O8" t="n">
-        <v>16427.8729911745</v>
+        <v>16.4278729911745</v>
       </c>
       <c r="P8" t="n">
         <v>1.99094213921766</v>
@@ -4909,28 +4909,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E9" t="n">
-        <v>1.6258320305</v>
+        <v>0.0016258320305</v>
       </c>
       <c r="F9" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G9" t="n">
-        <v>35.0017659956943</v>
+        <v>0.0350017659956943</v>
       </c>
       <c r="H9" t="n">
-        <v>0.81291601525</v>
+        <v>0.00081291601525</v>
       </c>
       <c r="I9" t="n">
-        <v>17.5008829978471</v>
+        <v>0.0175008829978471</v>
       </c>
       <c r="J9" t="n">
-        <v>140.007063982777</v>
+        <v>0.140007063982777</v>
       </c>
       <c r="K9" t="n">
-        <v>8251.30608648922</v>
+        <v>8.25130608648922</v>
       </c>
       <c r="L9" t="n">
-        <v>24641.8094867618</v>
+        <v>24.6418094867618</v>
       </c>
       <c r="M9" t="n">
         <v>2.98641320882649</v>
@@ -4939,7 +4939,7 @@
         <v>1.5</v>
       </c>
       <c r="O9" t="n">
-        <v>16427.8729911745</v>
+        <v>16.4278729911745</v>
       </c>
       <c r="P9" t="n">
         <v>1.99094213921766</v>
@@ -5029,16 +5029,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.057874322</v>
+        <v>0.000057874322</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.622974402583423</v>
+        <v>0.000622974402583423</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0917489085</v>
+        <v>0.0000917489085</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -5047,10 +5047,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.97521869752422</v>
+        <v>0.00197521869752422</v>
       </c>
       <c r="L2" t="n">
-        <v>1.3522442949408</v>
+        <v>0.0013522442949408</v>
       </c>
       <c r="M2" t="n">
         <v>0.684604847369928</v>
@@ -5059,7 +5059,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>0.225374049156799</v>
+        <v>0.000225374049156799</v>
       </c>
       <c r="P2" t="n">
         <v>0.114100807894988</v>
@@ -5082,28 +5082,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.125623495</v>
+        <v>0.000125623495</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>1.3522442949408</v>
+        <v>0.0013522442949408</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0628117475</v>
+        <v>0.0000628117475</v>
       </c>
       <c r="I3" t="n">
-        <v>0.676122147470398</v>
+        <v>0.000676122147470398</v>
       </c>
       <c r="J3" t="n">
-        <v>1.3522442949408</v>
+        <v>0.0013522442949408</v>
       </c>
       <c r="K3" t="n">
-        <v>1.97521869752422</v>
+        <v>0.00197521869752422</v>
       </c>
       <c r="L3" t="n">
-        <v>1.3522442949408</v>
+        <v>0.0013522442949408</v>
       </c>
       <c r="M3" t="n">
         <v>0.684604847369928</v>
@@ -5112,7 +5112,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>0.225374049156799</v>
+        <v>0.000225374049156799</v>
       </c>
       <c r="P3" t="n">
         <v>0.114100807894988</v>
@@ -5202,28 +5202,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>1.08040371</v>
+        <v>0.00108040371</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>11.6297493003229</v>
+        <v>0.0116297493003229</v>
       </c>
       <c r="H2" t="n">
-        <v>0.540201855</v>
+        <v>0.000540201855</v>
       </c>
       <c r="I2" t="n">
-        <v>5.81487465016146</v>
+        <v>0.00581487465016146</v>
       </c>
       <c r="J2" t="n">
-        <v>5.81487465016146</v>
+        <v>0.00581487465016146</v>
       </c>
       <c r="K2" t="n">
-        <v>11.6297493003229</v>
+        <v>0.0116297493003229</v>
       </c>
       <c r="L2" t="n">
-        <v>5.81487465016146</v>
+        <v>0.00581487465016146</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -5232,7 +5232,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.484572887513455</v>
+        <v>0.000484572887513455</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -5322,28 +5322,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>1.533352973</v>
+        <v>0.001533352973</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>16.5054141334769</v>
+        <v>0.0165054141334769</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7666764865</v>
+        <v>0.0007666764865</v>
       </c>
       <c r="I2" t="n">
-        <v>8.25270706673843</v>
+        <v>0.00825270706673843</v>
       </c>
       <c r="J2" t="n">
-        <v>8.25270706673843</v>
+        <v>0.00825270706673843</v>
       </c>
       <c r="K2" t="n">
-        <v>16.5054141334769</v>
+        <v>0.0165054141334769</v>
       </c>
       <c r="L2" t="n">
-        <v>8.25270706673843</v>
+        <v>0.00825270706673843</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -5352,7 +5352,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.687725588894869</v>
+        <v>0.000687725588894869</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -5442,28 +5442,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.113780644</v>
+        <v>0.000113780644</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>2.44952947255113</v>
+        <v>0.00244952947255113</v>
       </c>
       <c r="H2" t="n">
-        <v>0.144593195</v>
+        <v>0.000144593195</v>
       </c>
       <c r="I2" t="n">
-        <v>1.55643912809473</v>
+        <v>0.00155643912809473</v>
       </c>
       <c r="J2" t="n">
-        <v>3.11287825618945</v>
+        <v>0.00311287825618945</v>
       </c>
       <c r="K2" t="n">
-        <v>4.33764299246502</v>
+        <v>0.00433764299246502</v>
       </c>
       <c r="L2" t="n">
-        <v>5.00099177610334</v>
+        <v>0.00500099177610334</v>
       </c>
       <c r="M2" t="n">
         <v>1.15292839562653</v>
@@ -5472,7 +5472,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>0.833498629350556</v>
+        <v>0.000833498629350556</v>
       </c>
       <c r="P2" t="n">
         <v>0.192154732604421</v>
@@ -5495,28 +5495,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.175405746</v>
+        <v>0.000175405746</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>1.88811351991389</v>
+        <v>0.00188811351991389</v>
       </c>
       <c r="H3" t="n">
-        <v>0.087702873</v>
+        <v>0.000087702873</v>
       </c>
       <c r="I3" t="n">
-        <v>0.944056759956943</v>
+        <v>0.000944056759956943</v>
       </c>
       <c r="J3" t="n">
-        <v>1.88811351991389</v>
+        <v>0.00188811351991389</v>
       </c>
       <c r="K3" t="n">
-        <v>4.33764299246502</v>
+        <v>0.00433764299246502</v>
       </c>
       <c r="L3" t="n">
-        <v>5.00099177610334</v>
+        <v>0.00500099177610334</v>
       </c>
       <c r="M3" t="n">
         <v>1.15292839562653</v>
@@ -5525,7 +5525,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>0.833498629350556</v>
+        <v>0.000833498629350556</v>
       </c>
       <c r="P3" t="n">
         <v>0.192154732604421</v>
@@ -5615,16 +5615,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.039305318</v>
+        <v>0.000039305318</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.423092766415501</v>
+        <v>0.000423092766415501</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2517689785</v>
+        <v>0.0002517689785</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -5633,10 +5633,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>5.42021482238967</v>
+        <v>0.00542021482238967</v>
       </c>
       <c r="L2" t="n">
-        <v>4.99712205597417</v>
+        <v>0.00499712205597417</v>
       </c>
       <c r="M2" t="n">
         <v>0.921941697833119</v>
@@ -5645,7 +5645,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>0.832853675995694</v>
+        <v>0.000832853675995694</v>
       </c>
       <c r="P2" t="n">
         <v>0.153656949638853</v>
@@ -5668,28 +5668,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.464232639</v>
+        <v>0.000464232639</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>4.99712205597417</v>
+        <v>0.00499712205597417</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2321163195</v>
+        <v>0.0002321163195</v>
       </c>
       <c r="I3" t="n">
-        <v>2.49856102798708</v>
+        <v>0.00249856102798708</v>
       </c>
       <c r="J3" t="n">
-        <v>4.99712205597417</v>
+        <v>0.00499712205597417</v>
       </c>
       <c r="K3" t="n">
-        <v>5.42021482238967</v>
+        <v>0.00542021482238967</v>
       </c>
       <c r="L3" t="n">
-        <v>4.99712205597417</v>
+        <v>0.00499712205597417</v>
       </c>
       <c r="M3" t="n">
         <v>0.921941697833119</v>
@@ -5698,7 +5698,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>0.832853675995694</v>
+        <v>0.000832853675995694</v>
       </c>
       <c r="P3" t="n">
         <v>0.153656949638853</v>
@@ -5788,16 +5788,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.254722351</v>
+        <v>0.000254722351</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.74189828848224</v>
+        <v>0.00274189828848224</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3679251535</v>
+        <v>0.0003679251535</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -5806,10 +5806,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>53.9692661786868</v>
+        <v>0.0539692661786868</v>
       </c>
       <c r="L2" t="n">
-        <v>74.6810407534984</v>
+        <v>0.0746810407534984</v>
       </c>
       <c r="M2" t="n">
         <v>1.38376980161704</v>
@@ -5818,7 +5818,7 @@
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>24.8936802511661</v>
+        <v>0.0248936802511661</v>
       </c>
       <c r="P2" t="n">
         <v>0.461256600539012</v>
@@ -5841,16 +5841,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.481127956</v>
+        <v>0.000481127956</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.17898768568353</v>
+        <v>0.00517898768568353</v>
       </c>
       <c r="H3" t="n">
-        <v>0.645044067</v>
+        <v>0.000645044067</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -5859,10 +5859,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>53.9692661786868</v>
+        <v>0.0539692661786868</v>
       </c>
       <c r="L3" t="n">
-        <v>74.6810407534984</v>
+        <v>0.0746810407534984</v>
       </c>
       <c r="M3" t="n">
         <v>1.38376980161704</v>
@@ -5871,7 +5871,7 @@
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>24.8936802511661</v>
+        <v>0.0248936802511661</v>
       </c>
       <c r="P3" t="n">
         <v>0.461256600539012</v>
@@ -5894,16 +5894,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.808960178</v>
+        <v>0.000808960178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>8.7078598277718</v>
+        <v>0.0087078598277718</v>
       </c>
       <c r="H4" t="n">
-        <v>2.1389472605</v>
+        <v>0.0021389472605</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -5912,10 +5912,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>53.9692661786868</v>
+        <v>0.0539692661786868</v>
       </c>
       <c r="L4" t="n">
-        <v>74.6810407534984</v>
+        <v>0.0746810407534984</v>
       </c>
       <c r="M4" t="n">
         <v>1.38376980161704</v>
@@ -5924,7 +5924,7 @@
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>24.8936802511661</v>
+        <v>0.0248936802511661</v>
       </c>
       <c r="P4" t="n">
         <v>0.461256600539012</v>
@@ -5947,28 +5947,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>3.468934343</v>
+        <v>0.003468934343</v>
       </c>
       <c r="F5" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G5" t="n">
-        <v>37.3405203767492</v>
+        <v>0.0373405203767492</v>
       </c>
       <c r="H5" t="n">
-        <v>1.7344671715</v>
+        <v>0.0017344671715</v>
       </c>
       <c r="I5" t="n">
-        <v>18.6702601883746</v>
+        <v>0.0186702601883746</v>
       </c>
       <c r="J5" t="n">
-        <v>74.6810407534984</v>
+        <v>0.0746810407534984</v>
       </c>
       <c r="K5" t="n">
-        <v>53.9692661786868</v>
+        <v>0.0539692661786868</v>
       </c>
       <c r="L5" t="n">
-        <v>74.6810407534984</v>
+        <v>0.0746810407534984</v>
       </c>
       <c r="M5" t="n">
         <v>1.38376980161704</v>
@@ -5977,7 +5977,7 @@
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>24.8936802511661</v>
+        <v>0.0248936802511661</v>
       </c>
       <c r="P5" t="n">
         <v>0.461256600539012</v>
@@ -6067,28 +6067,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.019536118</v>
+        <v>0.000019536118</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.210291905274489</v>
+        <v>0.000210291905274489</v>
       </c>
       <c r="H2" t="n">
-        <v>0.009768059</v>
+        <v>0.000009768059</v>
       </c>
       <c r="I2" t="n">
-        <v>0.105145952637244</v>
+        <v>0.000105145952637244</v>
       </c>
       <c r="J2" t="n">
-        <v>0.105145952637244</v>
+        <v>0.000105145952637244</v>
       </c>
       <c r="K2" t="n">
-        <v>0.210291905274489</v>
+        <v>0.000210291905274489</v>
       </c>
       <c r="L2" t="n">
-        <v>0.105145952637244</v>
+        <v>0.000105145952637244</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -6097,7 +6097,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00876216271977036</v>
+        <v>0.00000876216271977036</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -6187,28 +6187,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.060693668</v>
+        <v>0.000060693668</v>
       </c>
       <c r="F2" t="n">
         <v>-37.6749192680302</v>
       </c>
       <c r="G2" t="n">
-        <v>1.30664516684607</v>
+        <v>0.00130664516684607</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3074721585</v>
+        <v>0.0003074721585</v>
       </c>
       <c r="I2" t="n">
-        <v>-11.5839887486545</v>
+        <v>-0.0115839887486545</v>
       </c>
       <c r="J2" t="n">
-        <v>-46.3359549946179</v>
+        <v>-0.0463359549946179</v>
       </c>
       <c r="K2" t="n">
-        <v>58.4472926533908</v>
+        <v>0.0584472926533908</v>
       </c>
       <c r="L2" t="n">
-        <v>135.19108613563</v>
+        <v>0.13519108613563</v>
       </c>
       <c r="M2" t="n">
         <v>2.31304274326874</v>
@@ -6217,7 +6217,7 @@
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>45.0636953785433</v>
+        <v>0.0450636953785432</v>
       </c>
       <c r="P2" t="n">
         <v>0.771014247756246</v>
@@ -6240,28 +6240,28 @@
         <v>59.2034445640474</v>
       </c>
       <c r="E3" t="n">
-        <v>0.554250649</v>
+        <v>0.000554250649</v>
       </c>
       <c r="F3" t="n">
         <v>32.2927879440258</v>
       </c>
       <c r="G3" t="n">
-        <v>32.8135475726588</v>
+        <v>0.0328135475726588</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5722953105</v>
+        <v>0.0005722953105</v>
       </c>
       <c r="I3" t="n">
-        <v>18.4810111033369</v>
+        <v>0.0184810111033369</v>
       </c>
       <c r="J3" t="n">
-        <v>73.9240444133477</v>
+        <v>0.0739240444133477</v>
       </c>
       <c r="K3" t="n">
-        <v>58.4472926533908</v>
+        <v>0.0584472926533908</v>
       </c>
       <c r="L3" t="n">
-        <v>135.19108613563</v>
+        <v>0.13519108613563</v>
       </c>
       <c r="M3" t="n">
         <v>2.31304274326874</v>
@@ -6270,7 +6270,7 @@
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>45.0636953785433</v>
+        <v>0.0450636953785432</v>
       </c>
       <c r="P3" t="n">
         <v>0.771014247756246</v>
@@ -6293,28 +6293,28 @@
         <v>26.9106566200215</v>
       </c>
       <c r="E4" t="n">
-        <v>0.590339972</v>
+        <v>0.000590339972</v>
       </c>
       <c r="F4" t="n">
         <v>16.1463939720129</v>
       </c>
       <c r="G4" t="n">
-        <v>15.8864362755651</v>
+        <v>0.0158864362755651</v>
       </c>
       <c r="H4" t="n">
-        <v>0.687238812</v>
+        <v>0.000687238812</v>
       </c>
       <c r="I4" t="n">
-        <v>11.0964286114101</v>
+        <v>0.0110964286114101</v>
       </c>
       <c r="J4" t="n">
-        <v>44.3857144456405</v>
+        <v>0.0443857144456405</v>
       </c>
       <c r="K4" t="n">
-        <v>58.4472926533908</v>
+        <v>0.0584472926533908</v>
       </c>
       <c r="L4" t="n">
-        <v>135.19108613563</v>
+        <v>0.13519108613563</v>
       </c>
       <c r="M4" t="n">
         <v>2.31304274326874</v>
@@ -6323,7 +6323,7 @@
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>45.0636953785433</v>
+        <v>0.0450636953785432</v>
       </c>
       <c r="P4" t="n">
         <v>0.771014247756246</v>
@@ -6346,28 +6346,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.784137652</v>
+        <v>0.000784137652</v>
       </c>
       <c r="F5" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G5" t="n">
-        <v>8.44066363832077</v>
+        <v>0.00844066363832078</v>
       </c>
       <c r="H5" t="n">
-        <v>0.392068826</v>
+        <v>0.000392068826</v>
       </c>
       <c r="I5" t="n">
-        <v>4.22033181916039</v>
+        <v>0.00422033181916039</v>
       </c>
       <c r="J5" t="n">
-        <v>16.8813272766415</v>
+        <v>0.0168813272766416</v>
       </c>
       <c r="K5" t="n">
-        <v>58.4472926533908</v>
+        <v>0.0584472926533908</v>
       </c>
       <c r="L5" t="n">
-        <v>135.19108613563</v>
+        <v>0.13519108613563</v>
       </c>
       <c r="M5" t="n">
         <v>2.31304274326874</v>
@@ -6376,7 +6376,7 @@
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>45.0636953785433</v>
+        <v>0.0450636953785432</v>
       </c>
       <c r="P5" t="n">
         <v>0.771014247756246</v>
@@ -6466,28 +6466,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.017321189</v>
+        <v>0.000017321189</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.186449827771798</v>
+        <v>0.000186449827771798</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0086605945</v>
+        <v>0.0000086605945</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0932249138858988</v>
+        <v>0.0000932249138858988</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0932249138858988</v>
+        <v>0.0000932249138858988</v>
       </c>
       <c r="K2" t="n">
-        <v>0.186449827771798</v>
+        <v>0.000186449827771798</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0932249138858988</v>
+        <v>0.0000932249138858988</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -6496,7 +6496,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0077687428238249</v>
+        <v>0.0000077687428238249</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -6586,28 +6586,28 @@
         <v>25.1166128453534</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00466666666666667</v>
+        <v>0.00000466666666666667</v>
       </c>
       <c r="F2" t="n">
         <v>-69.967707212056</v>
       </c>
       <c r="G2" t="n">
-        <v>0.117210859944983</v>
+        <v>0.000117210859944983</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0444686469166667</v>
+        <v>0.0000444686469166667</v>
       </c>
       <c r="I2" t="n">
-        <v>-3.11136926758163</v>
+        <v>-0.00311136926758163</v>
       </c>
       <c r="J2" t="n">
-        <v>-24.890954140653</v>
+        <v>-0.024890954140653</v>
       </c>
       <c r="K2" t="n">
-        <v>35.5855549708408</v>
+        <v>0.0355855549708408</v>
       </c>
       <c r="L2" t="n">
-        <v>102.436715569812</v>
+        <v>0.102436715569812</v>
       </c>
       <c r="M2" t="n">
         <v>2.87860385074084</v>
@@ -6616,7 +6616,7 @@
         <v>1.5</v>
       </c>
       <c r="O2" t="n">
-        <v>68.2911437132082</v>
+        <v>0.0682911437132082</v>
       </c>
       <c r="P2" t="n">
         <v>1.91906923382723</v>
@@ -6639,28 +6639,28 @@
         <v>95.0843200574094</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0842706271666667</v>
+        <v>0.0000842706271666667</v>
       </c>
       <c r="F3" t="n">
         <v>47.7215644061715</v>
       </c>
       <c r="G3" t="n">
-        <v>8.01281528495395</v>
+        <v>0.00801281528495395</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0944813721833333</v>
+        <v>0.0000944813721833333</v>
       </c>
       <c r="I3" t="n">
-        <v>4.5087988878304</v>
+        <v>0.0045087988878304</v>
       </c>
       <c r="J3" t="n">
-        <v>36.0703911026432</v>
+        <v>0.0360703911026432</v>
       </c>
       <c r="K3" t="n">
-        <v>35.5855549708408</v>
+        <v>0.0355855549708408</v>
       </c>
       <c r="L3" t="n">
-        <v>102.436715569812</v>
+        <v>0.102436715569812</v>
       </c>
       <c r="M3" t="n">
         <v>2.87860385074084</v>
@@ -6669,7 +6669,7 @@
         <v>1.5</v>
       </c>
       <c r="O3" t="n">
-        <v>68.2911437132082</v>
+        <v>0.0682911437132082</v>
       </c>
       <c r="P3" t="n">
         <v>1.91906923382723</v>
@@ -6692,28 +6692,28 @@
         <v>47.3627556512379</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1046921172</v>
+        <v>0.0001046921172</v>
       </c>
       <c r="F4" t="n">
         <v>-1.07642626480087</v>
       </c>
       <c r="G4" t="n">
-        <v>4.95850716555436</v>
+        <v>0.00495850716555436</v>
       </c>
       <c r="H4" t="n">
-        <v>0.15473563185</v>
+        <v>0.00015473563185</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.166561498223897</v>
+        <v>-0.000166561498223897</v>
       </c>
       <c r="J4" t="n">
-        <v>-1.33249198579118</v>
+        <v>-0.00133249198579118</v>
       </c>
       <c r="K4" t="n">
-        <v>35.5855549708408</v>
+        <v>0.0355855549708408</v>
       </c>
       <c r="L4" t="n">
-        <v>102.436715569812</v>
+        <v>0.102436715569812</v>
       </c>
       <c r="M4" t="n">
         <v>2.87860385074084</v>
@@ -6722,7 +6722,7 @@
         <v>1.5</v>
       </c>
       <c r="O4" t="n">
-        <v>68.2911437132082</v>
+        <v>0.0682911437132082</v>
       </c>
       <c r="P4" t="n">
         <v>1.91906923382723</v>
@@ -6745,28 +6745,28 @@
         <v>48.4391819160388</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2047791465</v>
+        <v>0.0002047791465</v>
       </c>
       <c r="F5" t="n">
         <v>16.1463939720129</v>
       </c>
       <c r="G5" t="n">
-        <v>9.91933432992465</v>
+        <v>0.00991933432992465</v>
       </c>
       <c r="H5" t="n">
-        <v>0.21526506225</v>
+        <v>0.00021526506225</v>
       </c>
       <c r="I5" t="n">
-        <v>3.47575450349838</v>
+        <v>0.00347575450349839</v>
       </c>
       <c r="J5" t="n">
-        <v>27.8060360279871</v>
+        <v>0.0278060360279871</v>
       </c>
       <c r="K5" t="n">
-        <v>35.5855549708408</v>
+        <v>0.0355855549708408</v>
       </c>
       <c r="L5" t="n">
-        <v>102.436715569812</v>
+        <v>0.102436715569812</v>
       </c>
       <c r="M5" t="n">
         <v>2.87860385074084</v>
@@ -6775,7 +6775,7 @@
         <v>1.5</v>
       </c>
       <c r="O5" t="n">
-        <v>68.2911437132082</v>
+        <v>0.0682911437132082</v>
       </c>
       <c r="P5" t="n">
         <v>1.91906923382723</v>
@@ -6798,28 +6798,28 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E6" t="n">
-        <v>0.225750978</v>
+        <v>0.000225750978</v>
       </c>
       <c r="F6" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G6" t="n">
-        <v>7.29012846071044</v>
+        <v>0.00729012846071044</v>
       </c>
       <c r="H6" t="n">
-        <v>0.169623797</v>
+        <v>0.000169623797</v>
       </c>
       <c r="I6" t="n">
-        <v>3.65175020452099</v>
+        <v>0.00365175020452099</v>
       </c>
       <c r="J6" t="n">
-        <v>29.2140016361679</v>
+        <v>0.0292140016361679</v>
       </c>
       <c r="K6" t="n">
-        <v>35.5855549708408</v>
+        <v>0.0355855549708408</v>
       </c>
       <c r="L6" t="n">
-        <v>102.436715569812</v>
+        <v>0.102436715569812</v>
       </c>
       <c r="M6" t="n">
         <v>2.87860385074084</v>
@@ -6828,7 +6828,7 @@
         <v>1.5</v>
       </c>
       <c r="O6" t="n">
-        <v>68.2911437132082</v>
+        <v>0.0682911437132082</v>
       </c>
       <c r="P6" t="n">
         <v>1.91906923382723</v>
@@ -6851,16 +6851,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E7" t="n">
-        <v>0.113496616</v>
+        <v>0.000113496616</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.22170738428418</v>
+        <v>0.00122170738428418</v>
       </c>
       <c r="H7" t="n">
-        <v>0.137073354</v>
+        <v>0.000137073354</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -6869,10 +6869,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>35.5855549708408</v>
+        <v>0.0355855549708408</v>
       </c>
       <c r="L7" t="n">
-        <v>102.436715569812</v>
+        <v>0.102436715569812</v>
       </c>
       <c r="M7" t="n">
         <v>2.87860385074084</v>
@@ -6881,7 +6881,7 @@
         <v>1.5</v>
       </c>
       <c r="O7" t="n">
-        <v>68.2911437132082</v>
+        <v>0.0682911437132082</v>
       </c>
       <c r="P7" t="n">
         <v>1.91906923382723</v>
@@ -6904,16 +6904,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E8" t="n">
-        <v>0.160650092</v>
+        <v>0.000160650092</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.72927978471475</v>
+        <v>0.00172927978471475</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1888588015</v>
+        <v>0.0001888588015</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -6922,10 +6922,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>35.5855549708408</v>
+        <v>0.0355855549708408</v>
       </c>
       <c r="L8" t="n">
-        <v>102.436715569812</v>
+        <v>0.102436715569812</v>
       </c>
       <c r="M8" t="n">
         <v>2.87860385074084</v>
@@ -6934,7 +6934,7 @@
         <v>1.5</v>
       </c>
       <c r="O8" t="n">
-        <v>68.2911437132082</v>
+        <v>0.0682911437132082</v>
       </c>
       <c r="P8" t="n">
         <v>1.91906923382723</v>
@@ -6957,28 +6957,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E9" t="n">
-        <v>0.217067511</v>
+        <v>0.000217067511</v>
       </c>
       <c r="F9" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G9" t="n">
-        <v>2.3365717007535</v>
+        <v>0.0023365717007535</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1085337555</v>
+        <v>0.0001085337555</v>
       </c>
       <c r="I9" t="n">
-        <v>1.16828585037675</v>
+        <v>0.00116828585037675</v>
       </c>
       <c r="J9" t="n">
-        <v>9.34628680301399</v>
+        <v>0.00934628680301399</v>
       </c>
       <c r="K9" t="n">
-        <v>35.5855549708408</v>
+        <v>0.0355855549708408</v>
       </c>
       <c r="L9" t="n">
-        <v>102.436715569812</v>
+        <v>0.102436715569812</v>
       </c>
       <c r="M9" t="n">
         <v>2.87860385074084</v>
@@ -6987,7 +6987,7 @@
         <v>1.5</v>
       </c>
       <c r="O9" t="n">
-        <v>68.2911437132082</v>
+        <v>0.0682911437132082</v>
       </c>
       <c r="P9" t="n">
         <v>1.91906923382723</v>
@@ -7077,28 +7077,28 @@
         <v>141.011840688913</v>
       </c>
       <c r="E2" t="n">
-        <v>0.18078</v>
+        <v>0.00018078</v>
       </c>
       <c r="F2" t="n">
         <v>-23.6813778256189</v>
       </c>
       <c r="G2" t="n">
-        <v>25.4921205597417</v>
+        <v>0.0254921205597417</v>
       </c>
       <c r="H2" t="n">
-        <v>0.665431030545833</v>
+        <v>0.000665431030545833</v>
       </c>
       <c r="I2" t="n">
-        <v>-15.7583236512468</v>
+        <v>-0.0157583236512468</v>
       </c>
       <c r="J2" t="n">
-        <v>-63.0332946049873</v>
+        <v>-0.0630332946049873</v>
       </c>
       <c r="K2" t="n">
-        <v>973.937295247146</v>
+        <v>0.973937295247146</v>
       </c>
       <c r="L2" t="n">
-        <v>1431.98324054232</v>
+        <v>1.43198324054232</v>
       </c>
       <c r="M2" t="n">
         <v>1.47030332191862</v>
@@ -7107,7 +7107,7 @@
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>477.327746847439</v>
+        <v>0.477327746847439</v>
       </c>
       <c r="P2" t="n">
         <v>0.490101107306208</v>
@@ -7130,28 +7130,28 @@
         <v>164.693218514532</v>
       </c>
       <c r="E3" t="n">
-        <v>1.15008206109167</v>
+        <v>0.00115008206109167</v>
       </c>
       <c r="F3" t="n">
         <v>26.9106566200215</v>
       </c>
       <c r="G3" t="n">
-        <v>189.410716197013</v>
+        <v>0.189410716197013</v>
       </c>
       <c r="H3" t="n">
-        <v>1.77577583555972</v>
+        <v>0.00177577583555972</v>
       </c>
       <c r="I3" t="n">
-        <v>47.7872937448794</v>
+        <v>0.0477872937448794</v>
       </c>
       <c r="J3" t="n">
-        <v>191.149174979518</v>
+        <v>0.191149174979518</v>
       </c>
       <c r="K3" t="n">
-        <v>973.937295247146</v>
+        <v>0.973937295247146</v>
       </c>
       <c r="L3" t="n">
-        <v>1431.98324054232</v>
+        <v>1.43198324054232</v>
       </c>
       <c r="M3" t="n">
         <v>1.47030332191862</v>
@@ -7160,7 +7160,7 @@
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>477.327746847439</v>
+        <v>0.477327746847439</v>
       </c>
       <c r="P3" t="n">
         <v>0.490101107306208</v>
@@ -7183,28 +7183,28 @@
         <v>137.78256189451</v>
       </c>
       <c r="E4" t="n">
-        <v>2.40146961002778</v>
+        <v>0.00240146961002778</v>
       </c>
       <c r="F4" t="n">
         <v>30.1399354144241</v>
       </c>
       <c r="G4" t="n">
-        <v>330.880635181438</v>
+        <v>0.330880635181438</v>
       </c>
       <c r="H4" t="n">
-        <v>3.18950931428398</v>
+        <v>0.00318950931428398</v>
       </c>
       <c r="I4" t="n">
-        <v>96.1316047362233</v>
+        <v>0.0961316047362233</v>
       </c>
       <c r="J4" t="n">
-        <v>384.526418944893</v>
+        <v>0.384526418944893</v>
       </c>
       <c r="K4" t="n">
-        <v>973.937295247146</v>
+        <v>0.973937295247146</v>
       </c>
       <c r="L4" t="n">
-        <v>1431.98324054232</v>
+        <v>1.43198324054232</v>
       </c>
       <c r="M4" t="n">
         <v>1.47030332191862</v>
@@ -7213,7 +7213,7 @@
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>477.327746847439</v>
+        <v>0.477327746847439</v>
       </c>
       <c r="P4" t="n">
         <v>0.490101107306208</v>
@@ -7236,28 +7236,28 @@
         <v>107.642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>3.97754901854018</v>
+        <v>0.00397754901854018</v>
       </c>
       <c r="F5" t="n">
         <v>107.642626480086</v>
       </c>
       <c r="G5" t="n">
-        <v>428.153823308954</v>
+        <v>0.428153823308954</v>
       </c>
       <c r="H5" t="n">
-        <v>1.98877450927009</v>
+        <v>0.00198877450927009</v>
       </c>
       <c r="I5" t="n">
-        <v>214.076911654477</v>
+        <v>0.214076911654477</v>
       </c>
       <c r="J5" t="n">
-        <v>856.307646617907</v>
+        <v>0.856307646617907</v>
       </c>
       <c r="K5" t="n">
-        <v>973.937295247146</v>
+        <v>0.973937295247146</v>
       </c>
       <c r="L5" t="n">
-        <v>1431.98324054232</v>
+        <v>1.43198324054232</v>
       </c>
       <c r="M5" t="n">
         <v>1.47030332191862</v>
@@ -7266,7 +7266,7 @@
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>477.327746847439</v>
+        <v>0.477327746847439</v>
       </c>
       <c r="P5" t="n">
         <v>0.490101107306208</v>
@@ -7356,28 +7356,28 @@
         <v>53.8213132400431</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02</v>
+        <v>0.00002</v>
       </c>
       <c r="F2" t="n">
         <v>-43.0570505920345</v>
       </c>
       <c r="G2" t="n">
-        <v>1.07642626480086</v>
+        <v>0.00107642626480086</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0781631761289683</v>
+        <v>0.0000781631761289683</v>
       </c>
       <c r="I2" t="n">
-        <v>-3.36547582901909</v>
+        <v>-0.00336547582901909</v>
       </c>
       <c r="J2" t="n">
-        <v>-16.8273791450954</v>
+        <v>-0.0168273791450954</v>
       </c>
       <c r="K2" t="n">
-        <v>111.183596827618</v>
+        <v>0.111183596827618</v>
       </c>
       <c r="L2" t="n">
-        <v>274.602516507872</v>
+        <v>0.274602516507872</v>
       </c>
       <c r="M2" t="n">
         <v>2.46981141412095</v>
@@ -7386,7 +7386,7 @@
         <v>2.4</v>
       </c>
       <c r="O2" t="n">
-        <v>114.417715211614</v>
+        <v>0.114417715211614</v>
       </c>
       <c r="P2" t="n">
         <v>1.02908808921706</v>
@@ -7409,28 +7409,28 @@
         <v>96.8783638320775</v>
       </c>
       <c r="E3" t="n">
-        <v>0.136326352257936</v>
+        <v>0.000136326352257937</v>
       </c>
       <c r="F3" t="n">
         <v>53.8213132400431</v>
       </c>
       <c r="G3" t="n">
-        <v>13.2070739539443</v>
+        <v>0.0132070739539443</v>
       </c>
       <c r="H3" t="n">
-        <v>0.138414174093254</v>
+        <v>0.000138414174093254</v>
       </c>
       <c r="I3" t="n">
-        <v>7.44963262073488</v>
+        <v>0.00744963262073488</v>
       </c>
       <c r="J3" t="n">
-        <v>37.2481631036744</v>
+        <v>0.0372481631036744</v>
       </c>
       <c r="K3" t="n">
-        <v>111.183596827618</v>
+        <v>0.111183596827618</v>
       </c>
       <c r="L3" t="n">
-        <v>274.602516507872</v>
+        <v>0.274602516507872</v>
       </c>
       <c r="M3" t="n">
         <v>2.46981141412095</v>
@@ -7439,7 +7439,7 @@
         <v>2.4</v>
       </c>
       <c r="O3" t="n">
-        <v>114.417715211614</v>
+        <v>0.114417715211614</v>
       </c>
       <c r="P3" t="n">
         <v>1.02908808921706</v>
@@ -7462,28 +7462,28 @@
         <v>43.0570505920344</v>
       </c>
       <c r="E4" t="n">
-        <v>0.140501995928571</v>
+        <v>0.000140501995928571</v>
       </c>
       <c r="F4" t="n">
         <v>-37.6749192680302</v>
       </c>
       <c r="G4" t="n">
-        <v>6.04960154697832</v>
+        <v>0.00604960154697832</v>
       </c>
       <c r="H4" t="n">
-        <v>0.541678003714286</v>
+        <v>0.000541678003714286</v>
       </c>
       <c r="I4" t="n">
-        <v>-20.4076750592034</v>
+        <v>-0.0204076750592035</v>
       </c>
       <c r="J4" t="n">
-        <v>-102.038375296017</v>
+        <v>-0.102038375296017</v>
       </c>
       <c r="K4" t="n">
-        <v>111.183596827618</v>
+        <v>0.111183596827618</v>
       </c>
       <c r="L4" t="n">
-        <v>274.602516507872</v>
+        <v>0.274602516507872</v>
       </c>
       <c r="M4" t="n">
         <v>2.46981141412095</v>
@@ -7492,7 +7492,7 @@
         <v>2.4</v>
       </c>
       <c r="O4" t="n">
-        <v>114.417715211614</v>
+        <v>0.114417715211614</v>
       </c>
       <c r="P4" t="n">
         <v>1.02908808921706</v>
@@ -7515,28 +7515,28 @@
         <v>80.7319698600646</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9428540115</v>
+        <v>0.0009428540115</v>
       </c>
       <c r="F5" t="n">
         <v>53.8213132400431</v>
       </c>
       <c r="G5" t="n">
-        <v>76.118461638859</v>
+        <v>0.076118461638859</v>
       </c>
       <c r="H5" t="n">
-        <v>0.74514818675</v>
+        <v>0.00074514818675</v>
       </c>
       <c r="I5" t="n">
-        <v>40.1048539693219</v>
+        <v>0.0401048539693219</v>
       </c>
       <c r="J5" t="n">
-        <v>200.524269846609</v>
+        <v>0.200524269846609</v>
       </c>
       <c r="K5" t="n">
-        <v>111.183596827618</v>
+        <v>0.111183596827618</v>
       </c>
       <c r="L5" t="n">
-        <v>274.602516507872</v>
+        <v>0.274602516507872</v>
       </c>
       <c r="M5" t="n">
         <v>2.46981141412095</v>
@@ -7545,7 +7545,7 @@
         <v>2.4</v>
       </c>
       <c r="O5" t="n">
-        <v>114.417715211614</v>
+        <v>0.114417715211614</v>
       </c>
       <c r="P5" t="n">
         <v>1.02908808921706</v>
@@ -7568,28 +7568,28 @@
         <v>26.9106566200215</v>
       </c>
       <c r="E6" t="n">
-        <v>0.547442362</v>
+        <v>0.000547442362</v>
       </c>
       <c r="F6" t="n">
         <v>26.9106566200215</v>
       </c>
       <c r="G6" t="n">
-        <v>14.7320334230355</v>
+        <v>0.0147320334230355</v>
       </c>
       <c r="H6" t="n">
-        <v>0.273721181</v>
+        <v>0.000273721181</v>
       </c>
       <c r="I6" t="n">
-        <v>7.36601671151776</v>
+        <v>0.00736601671151776</v>
       </c>
       <c r="J6" t="n">
-        <v>36.8300835575888</v>
+        <v>0.0368300835575888</v>
       </c>
       <c r="K6" t="n">
-        <v>111.183596827618</v>
+        <v>0.111183596827618</v>
       </c>
       <c r="L6" t="n">
-        <v>274.602516507872</v>
+        <v>0.274602516507872</v>
       </c>
       <c r="M6" t="n">
         <v>2.46981141412095</v>
@@ -7598,7 +7598,7 @@
         <v>2.4</v>
       </c>
       <c r="O6" t="n">
-        <v>114.417715211614</v>
+        <v>0.114417715211614</v>
       </c>
       <c r="P6" t="n">
         <v>1.02908808921706</v>
@@ -7688,28 +7688,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01818324686</v>
+        <v>0.00001818324686</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.391458489989236</v>
+        <v>0.000391458489989236</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04071673212</v>
+        <v>0.00004071673212</v>
       </c>
       <c r="I2" t="n">
-        <v>0.438285598708289</v>
+        <v>0.000438285598708289</v>
       </c>
       <c r="J2" t="n">
-        <v>0.876571197416577</v>
+        <v>0.000876571197416577</v>
       </c>
       <c r="K2" t="n">
-        <v>1.0723004424112</v>
+        <v>0.0010723004424112</v>
       </c>
       <c r="L2" t="n">
-        <v>1.55741314983854</v>
+        <v>0.00155741314983854</v>
       </c>
       <c r="M2" t="n">
         <v>1.45240371843595</v>
@@ -7718,7 +7718,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>0.259568858306423</v>
+        <v>0.000259568858306423</v>
       </c>
       <c r="P2" t="n">
         <v>0.242067286405992</v>
@@ -7741,28 +7741,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06325021738</v>
+        <v>0.00006325021738</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>0.680841952421959</v>
+        <v>0.000680841952421959</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03162510869</v>
+        <v>0.00003162510869</v>
       </c>
       <c r="I3" t="n">
-        <v>0.34042097621098</v>
+        <v>0.00034042097621098</v>
       </c>
       <c r="J3" t="n">
-        <v>0.680841952421959</v>
+        <v>0.000680841952421959</v>
       </c>
       <c r="K3" t="n">
-        <v>1.0723004424112</v>
+        <v>0.0010723004424112</v>
       </c>
       <c r="L3" t="n">
-        <v>1.55741314983854</v>
+        <v>0.00155741314983854</v>
       </c>
       <c r="M3" t="n">
         <v>1.45240371843595</v>
@@ -7771,7 +7771,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>0.259568858306423</v>
+        <v>0.000259568858306423</v>
       </c>
       <c r="P3" t="n">
         <v>0.242067286405992</v>
@@ -7861,28 +7861,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0024</v>
+        <v>0.0000024</v>
       </c>
       <c r="F2" t="n">
         <v>-26.9106566200215</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0516684607104413</v>
+        <v>0.0000516684607104413</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0217337470625</v>
+        <v>0.0000217337470625</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.584869404265339</v>
+        <v>-0.000584869404265339</v>
       </c>
       <c r="J2" t="n">
-        <v>-2.92434702132669</v>
+        <v>-0.00292434702132669</v>
       </c>
       <c r="K2" t="n">
-        <v>12.6141415130517</v>
+        <v>0.0126141415130517</v>
       </c>
       <c r="L2" t="n">
-        <v>30.8489999031216</v>
+        <v>0.0308489999031216</v>
       </c>
       <c r="M2" t="n">
         <v>2.44558853816589</v>
@@ -7891,7 +7891,7 @@
         <v>2.4</v>
       </c>
       <c r="O2" t="n">
-        <v>12.853749959634</v>
+        <v>0.012853749959634</v>
       </c>
       <c r="P2" t="n">
         <v>1.01899522423579</v>
@@ -7914,28 +7914,28 @@
         <v>48.4391819160387</v>
       </c>
       <c r="E3" t="n">
-        <v>0.041067494125</v>
+        <v>0.000041067494125</v>
       </c>
       <c r="F3" t="n">
         <v>-5.38213132400431</v>
       </c>
       <c r="G3" t="n">
-        <v>1.98927581875673</v>
+        <v>0.00198927581875673</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0883989213625</v>
+        <v>0.0000883989213625</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.475774603673305</v>
+        <v>-0.000475774603673305</v>
       </c>
       <c r="J3" t="n">
-        <v>-2.37887301836653</v>
+        <v>-0.00237887301836653</v>
       </c>
       <c r="K3" t="n">
-        <v>12.6141415130517</v>
+        <v>0.0126141415130517</v>
       </c>
       <c r="L3" t="n">
-        <v>30.8489999031216</v>
+        <v>0.0308489999031216</v>
       </c>
       <c r="M3" t="n">
         <v>2.44558853816589</v>
@@ -7944,7 +7944,7 @@
         <v>2.4</v>
       </c>
       <c r="O3" t="n">
-        <v>12.853749959634</v>
+        <v>0.012853749959634</v>
       </c>
       <c r="P3" t="n">
         <v>1.01899522423579</v>
@@ -7967,28 +7967,28 @@
         <v>53.8213132400431</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1357303486</v>
+        <v>0.0001357303486</v>
       </c>
       <c r="F4" t="n">
         <v>43.0570505920345</v>
       </c>
       <c r="G4" t="n">
-        <v>7.30518560818084</v>
+        <v>0.00730518560818084</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1178367013</v>
+        <v>0.0001178367013</v>
       </c>
       <c r="I4" t="n">
-        <v>5.07370080947255</v>
+        <v>0.00507370080947255</v>
       </c>
       <c r="J4" t="n">
-        <v>25.3685040473628</v>
+        <v>0.0253685040473628</v>
       </c>
       <c r="K4" t="n">
-        <v>12.6141415130517</v>
+        <v>0.0126141415130517</v>
       </c>
       <c r="L4" t="n">
-        <v>30.8489999031216</v>
+        <v>0.0308489999031216</v>
       </c>
       <c r="M4" t="n">
         <v>2.44558853816589</v>
@@ -7997,7 +7997,7 @@
         <v>2.4</v>
       </c>
       <c r="O4" t="n">
-        <v>12.853749959634</v>
+        <v>0.012853749959634</v>
       </c>
       <c r="P4" t="n">
         <v>1.01899522423579</v>
@@ -8020,16 +8020,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.099943054</v>
+        <v>0.000099943054</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.07581328310011</v>
+        <v>0.00107581328310011</v>
       </c>
       <c r="H5" t="n">
-        <v>0.15179914</v>
+        <v>0.00015179914</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -8038,10 +8038,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>12.6141415130517</v>
+        <v>0.0126141415130517</v>
       </c>
       <c r="L5" t="n">
-        <v>30.8489999031216</v>
+        <v>0.0308489999031216</v>
       </c>
       <c r="M5" t="n">
         <v>2.44558853816589</v>
@@ -8050,7 +8050,7 @@
         <v>2.4</v>
       </c>
       <c r="O5" t="n">
-        <v>12.853749959634</v>
+        <v>0.012853749959634</v>
       </c>
       <c r="P5" t="n">
         <v>1.01899522423579</v>
@@ -8073,28 +8073,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>0.203655226</v>
+        <v>0.000203655226</v>
       </c>
       <c r="F6" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G6" t="n">
-        <v>2.19219834230355</v>
+        <v>0.00219219834230355</v>
       </c>
       <c r="H6" t="n">
-        <v>0.101827613</v>
+        <v>0.000101827613</v>
       </c>
       <c r="I6" t="n">
-        <v>1.09609917115178</v>
+        <v>0.00109609917115178</v>
       </c>
       <c r="J6" t="n">
-        <v>5.48049585575888</v>
+        <v>0.00548049585575888</v>
       </c>
       <c r="K6" t="n">
-        <v>12.6141415130517</v>
+        <v>0.0126141415130517</v>
       </c>
       <c r="L6" t="n">
-        <v>30.8489999031216</v>
+        <v>0.0308489999031216</v>
       </c>
       <c r="M6" t="n">
         <v>2.44558853816589</v>
@@ -8103,7 +8103,7 @@
         <v>2.4</v>
       </c>
       <c r="O6" t="n">
-        <v>12.853749959634</v>
+        <v>0.012853749959634</v>
       </c>
       <c r="P6" t="n">
         <v>1.01899522423579</v>
@@ -8193,16 +8193,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0055</v>
+        <v>0.0000055</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0592034445640474</v>
+        <v>0.0000592034445640474</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0198086505</v>
+        <v>0.0000198086505</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -8211,10 +8211,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.70454132400431</v>
+        <v>0.00270454132400431</v>
       </c>
       <c r="L2" t="n">
-        <v>3.41713543595264</v>
+        <v>0.00341713543595264</v>
       </c>
       <c r="M2" t="n">
         <v>1.2634805782495</v>
@@ -8223,13 +8223,13 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>0.854283858988159</v>
+        <v>0.000854283858988159</v>
       </c>
       <c r="P2" t="n">
         <v>0.315870144562376</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.521444721963567</v>
+        <v>0.521444721963568</v>
       </c>
     </row>
     <row r="3">
@@ -8246,16 +8246,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.034117301</v>
+        <v>0.000034117301</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.367247588805167</v>
+        <v>0.000367247588805167</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1228759445</v>
+        <v>0.0001228759445</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -8264,10 +8264,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.70454132400431</v>
+        <v>0.00270454132400431</v>
       </c>
       <c r="L3" t="n">
-        <v>3.41713543595264</v>
+        <v>0.00341713543595264</v>
       </c>
       <c r="M3" t="n">
         <v>1.2634805782495</v>
@@ -8276,13 +8276,13 @@
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>0.854283858988159</v>
+        <v>0.000854283858988159</v>
       </c>
       <c r="P3" t="n">
         <v>0.315870144562376</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.521444721963567</v>
+        <v>0.521444721963568</v>
       </c>
     </row>
     <row r="4">
@@ -8299,28 +8299,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.211634588</v>
+        <v>0.000211634588</v>
       </c>
       <c r="F4" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>2.27809029063509</v>
+        <v>0.00227809029063509</v>
       </c>
       <c r="H4" t="n">
-        <v>0.105817294</v>
+        <v>0.000105817294</v>
       </c>
       <c r="I4" t="n">
-        <v>1.13904514531755</v>
+        <v>0.00113904514531755</v>
       </c>
       <c r="J4" t="n">
-        <v>3.41713543595264</v>
+        <v>0.00341713543595264</v>
       </c>
       <c r="K4" t="n">
-        <v>2.70454132400431</v>
+        <v>0.00270454132400431</v>
       </c>
       <c r="L4" t="n">
-        <v>3.41713543595264</v>
+        <v>0.00341713543595264</v>
       </c>
       <c r="M4" t="n">
         <v>1.2634805782495</v>
@@ -8329,13 +8329,13 @@
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>0.854283858988159</v>
+        <v>0.000854283858988159</v>
       </c>
       <c r="P4" t="n">
         <v>0.315870144562376</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.521444721963567</v>
+        <v>0.521444721963568</v>
       </c>
     </row>
   </sheetData>
@@ -8419,28 +8419,28 @@
         <v>16.1463939720129</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01155</v>
+        <v>0.00001155</v>
       </c>
       <c r="F2" t="n">
         <v>5.38213132400431</v>
       </c>
       <c r="G2" t="n">
-        <v>0.186490850376749</v>
+        <v>0.000186490850376749</v>
       </c>
       <c r="H2" t="n">
-        <v>0.034175776</v>
+        <v>0.000034175776</v>
       </c>
       <c r="I2" t="n">
-        <v>0.183938514531755</v>
+        <v>0.000183938514531755</v>
       </c>
       <c r="J2" t="n">
-        <v>0.367877029063509</v>
+        <v>0.000367877029063509</v>
       </c>
       <c r="K2" t="n">
-        <v>0.797917674919268</v>
+        <v>0.000797917674919268</v>
       </c>
       <c r="L2" t="n">
-        <v>0.979303853606028</v>
+        <v>0.000979303853606028</v>
       </c>
       <c r="M2" t="n">
         <v>1.22732442755465</v>
@@ -8449,7 +8449,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>0.163217308934338</v>
+        <v>0.000163217308934338</v>
       </c>
       <c r="P2" t="n">
         <v>0.204554071259108</v>
@@ -8472,28 +8472,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.056801552</v>
+        <v>0.000056801552</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>0.611426824542519</v>
+        <v>0.000611426824542519</v>
       </c>
       <c r="H3" t="n">
-        <v>0.028400776</v>
+        <v>0.000028400776</v>
       </c>
       <c r="I3" t="n">
-        <v>0.305713412271259</v>
+        <v>0.000305713412271259</v>
       </c>
       <c r="J3" t="n">
-        <v>0.611426824542519</v>
+        <v>0.000611426824542519</v>
       </c>
       <c r="K3" t="n">
-        <v>0.797917674919268</v>
+        <v>0.000797917674919268</v>
       </c>
       <c r="L3" t="n">
-        <v>0.979303853606028</v>
+        <v>0.000979303853606028</v>
       </c>
       <c r="M3" t="n">
         <v>1.22732442755465</v>
@@ -8502,7 +8502,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>0.163217308934338</v>
+        <v>0.000163217308934338</v>
       </c>
       <c r="P3" t="n">
         <v>0.204554071259108</v>
@@ -8592,28 +8592,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.204791078</v>
+        <v>0.000204791078</v>
       </c>
       <c r="F2" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G2" t="n">
-        <v>4.40884990312164</v>
+        <v>0.00440884990312164</v>
       </c>
       <c r="H2" t="n">
-        <v>0.102395539</v>
+        <v>0.000102395539</v>
       </c>
       <c r="I2" t="n">
-        <v>2.20442495156082</v>
+        <v>0.00220442495156082</v>
       </c>
       <c r="J2" t="n">
-        <v>2.20442495156082</v>
+        <v>0.00220442495156082</v>
       </c>
       <c r="K2" t="n">
-        <v>4.40884990312164</v>
+        <v>0.00440884990312164</v>
       </c>
       <c r="L2" t="n">
-        <v>2.20442495156082</v>
+        <v>0.00220442495156082</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -8622,7 +8622,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.183702079296735</v>
+        <v>0.000183702079296735</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -8712,28 +8712,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00062</v>
+        <v>0.00000062</v>
       </c>
       <c r="F2" t="n">
         <v>-21.5285252960172</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00667384284176534</v>
+        <v>0.00000667384284176534</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00645452983</v>
+        <v>0.00000645452983</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.138956508719053</v>
+        <v>-0.000138956508719053</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.555826034876211</v>
+        <v>-0.000555826034876211</v>
       </c>
       <c r="K2" t="n">
-        <v>1.0716042181916</v>
+        <v>0.0010716042181916</v>
       </c>
       <c r="L2" t="n">
-        <v>2.13141955780409</v>
+        <v>0.00213141955780409</v>
       </c>
       <c r="M2" t="n">
         <v>1.98899885015476</v>
@@ -8742,7 +8742,7 @@
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>0.710473185934697</v>
+        <v>0.000710473185934697</v>
       </c>
       <c r="P2" t="n">
         <v>0.662999616718253</v>
@@ -8765,28 +8765,28 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01228905966</v>
+        <v>0.00001228905966</v>
       </c>
       <c r="F3" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G3" t="n">
-        <v>0.396847997631862</v>
+        <v>0.000396847997631862</v>
       </c>
       <c r="H3" t="n">
-        <v>0.012325262955</v>
+        <v>0.000012325262955</v>
       </c>
       <c r="I3" t="n">
-        <v>0.265344735306782</v>
+        <v>0.000265344735306782</v>
       </c>
       <c r="J3" t="n">
-        <v>1.06137894122713</v>
+        <v>0.00106137894122713</v>
       </c>
       <c r="K3" t="n">
-        <v>1.0716042181916</v>
+        <v>0.0010716042181916</v>
       </c>
       <c r="L3" t="n">
-        <v>2.13141955780409</v>
+        <v>0.00213141955780409</v>
       </c>
       <c r="M3" t="n">
         <v>1.98899885015476</v>
@@ -8795,7 +8795,7 @@
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>0.710473185934697</v>
+        <v>0.000710473185934697</v>
       </c>
       <c r="P3" t="n">
         <v>0.662999616718253</v>
@@ -8818,16 +8818,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01236146625</v>
+        <v>0.00001236146625</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.133062069429494</v>
+        <v>0.000133062069429494</v>
       </c>
       <c r="H4" t="n">
-        <v>0.031032426445</v>
+        <v>0.000031032426445</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -8836,10 +8836,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1.0716042181916</v>
+        <v>0.0010716042181916</v>
       </c>
       <c r="L4" t="n">
-        <v>2.13141955780409</v>
+        <v>0.00213141955780409</v>
       </c>
       <c r="M4" t="n">
         <v>1.98899885015476</v>
@@ -8848,7 +8848,7 @@
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>0.710473185934697</v>
+        <v>0.000710473185934697</v>
       </c>
       <c r="P4" t="n">
         <v>0.662999616718253</v>
@@ -8871,28 +8871,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04970338664</v>
+        <v>0.00004970338664</v>
       </c>
       <c r="F5" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G5" t="n">
-        <v>0.535020308288482</v>
+        <v>0.000535020308288482</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02485169332</v>
+        <v>0.00002485169332</v>
       </c>
       <c r="I5" t="n">
-        <v>0.267510154144241</v>
+        <v>0.000267510154144241</v>
       </c>
       <c r="J5" t="n">
-        <v>1.07004061657696</v>
+        <v>0.00107004061657696</v>
       </c>
       <c r="K5" t="n">
-        <v>1.0716042181916</v>
+        <v>0.0010716042181916</v>
       </c>
       <c r="L5" t="n">
-        <v>2.13141955780409</v>
+        <v>0.00213141955780409</v>
       </c>
       <c r="M5" t="n">
         <v>1.98899885015476</v>
@@ -8901,7 +8901,7 @@
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>0.710473185934697</v>
+        <v>0.000710473185934697</v>
       </c>
       <c r="P5" t="n">
         <v>0.662999616718253</v>
@@ -8991,28 +8991,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.481127956</v>
+        <v>0.000481127956</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>5.17898768568353</v>
+        <v>0.00517898768568353</v>
       </c>
       <c r="H2" t="n">
-        <v>0.240563978</v>
+        <v>0.000240563978</v>
       </c>
       <c r="I2" t="n">
-        <v>2.58949384284177</v>
+        <v>0.00258949384284177</v>
       </c>
       <c r="J2" t="n">
-        <v>2.58949384284177</v>
+        <v>0.00258949384284177</v>
       </c>
       <c r="K2" t="n">
-        <v>5.17898768568353</v>
+        <v>0.00517898768568353</v>
       </c>
       <c r="L2" t="n">
-        <v>2.58949384284177</v>
+        <v>0.00258949384284177</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -9021,7 +9021,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.215791153570147</v>
+        <v>0.000215791153570147</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -9111,28 +9111,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.779881618</v>
+        <v>0.000779881618</v>
       </c>
       <c r="F2" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G2" t="n">
-        <v>16.7897011410118</v>
+        <v>0.0167897011410118</v>
       </c>
       <c r="H2" t="n">
-        <v>0.389940809</v>
+        <v>0.000389940809</v>
       </c>
       <c r="I2" t="n">
-        <v>8.39485057050592</v>
+        <v>0.00839485057050592</v>
       </c>
       <c r="J2" t="n">
-        <v>8.39485057050592</v>
+        <v>0.00839485057050592</v>
       </c>
       <c r="K2" t="n">
-        <v>16.7897011410118</v>
+        <v>0.0167897011410118</v>
       </c>
       <c r="L2" t="n">
-        <v>8.39485057050592</v>
+        <v>0.00839485057050592</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -9141,7 +9141,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.699570880875493</v>
+        <v>0.000699570880875493</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -9231,28 +9231,28 @@
         <v>57.4094007893793</v>
       </c>
       <c r="E2" t="n">
-        <v>0.294569862166667</v>
+        <v>0.000294569862166667</v>
       </c>
       <c r="F2" t="n">
         <v>7.1761750986724</v>
       </c>
       <c r="G2" t="n">
-        <v>16.9110792775984</v>
+        <v>0.0169110792775984</v>
       </c>
       <c r="H2" t="n">
-        <v>0.474390552583333</v>
+        <v>0.000474390552583333</v>
       </c>
       <c r="I2" t="n">
-        <v>3.40430967049396</v>
+        <v>0.00340430967049396</v>
       </c>
       <c r="J2" t="n">
-        <v>30.6387870344456</v>
+        <v>0.0306387870344456</v>
       </c>
       <c r="K2" t="n">
-        <v>262.134073472073</v>
+        <v>0.262134073472073</v>
       </c>
       <c r="L2" t="n">
-        <v>765.69935719591</v>
+        <v>0.76569935719591</v>
       </c>
       <c r="M2" t="n">
         <v>2.92102185364119</v>
@@ -9261,7 +9261,7 @@
         <v>1.33333333333333</v>
       </c>
       <c r="O2" t="n">
-        <v>574.274517896932</v>
+        <v>0.574274517896932</v>
       </c>
       <c r="P2" t="n">
         <v>2.19076639023089</v>
@@ -9284,28 +9284,28 @@
         <v>50.2332256907069</v>
       </c>
       <c r="E3" t="n">
-        <v>0.654211243</v>
+        <v>0.000654211243</v>
       </c>
       <c r="F3" t="n">
         <v>28.7047003946896</v>
       </c>
       <c r="G3" t="n">
-        <v>32.8631410190169</v>
+        <v>0.0328631410190169</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6352427085</v>
+        <v>0.0006352427085</v>
       </c>
       <c r="I3" t="n">
-        <v>18.2344516254037</v>
+        <v>0.0182344516254037</v>
       </c>
       <c r="J3" t="n">
-        <v>164.110064628633</v>
+        <v>0.164110064628633</v>
       </c>
       <c r="K3" t="n">
-        <v>262.134073472073</v>
+        <v>0.262134073472073</v>
       </c>
       <c r="L3" t="n">
-        <v>765.69935719591</v>
+        <v>0.76569935719591</v>
       </c>
       <c r="M3" t="n">
         <v>2.92102185364119</v>
@@ -9314,7 +9314,7 @@
         <v>1.33333333333333</v>
       </c>
       <c r="O3" t="n">
-        <v>574.274517896932</v>
+        <v>0.574274517896932</v>
       </c>
       <c r="P3" t="n">
         <v>2.19076639023089</v>
@@ -9337,28 +9337,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E4" t="n">
-        <v>0.616274174</v>
+        <v>0.000616274174</v>
       </c>
       <c r="F4" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>13.2674741442411</v>
+        <v>0.0132674741442411</v>
       </c>
       <c r="H4" t="n">
-        <v>1.111981624</v>
+        <v>0.001111981624</v>
       </c>
       <c r="I4" t="n">
-        <v>-11.9696622604952</v>
+        <v>-0.0119696622604952</v>
       </c>
       <c r="J4" t="n">
-        <v>-107.726960344456</v>
+        <v>-0.107726960344456</v>
       </c>
       <c r="K4" t="n">
-        <v>262.134073472073</v>
+        <v>0.262134073472073</v>
       </c>
       <c r="L4" t="n">
-        <v>765.69935719591</v>
+        <v>0.76569935719591</v>
       </c>
       <c r="M4" t="n">
         <v>2.92102185364119</v>
@@ -9367,7 +9367,7 @@
         <v>1.33333333333333</v>
       </c>
       <c r="O4" t="n">
-        <v>574.274517896932</v>
+        <v>0.574274517896932</v>
       </c>
       <c r="P4" t="n">
         <v>2.19076639023089</v>
@@ -9390,28 +9390,28 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E5" t="n">
-        <v>1.607689074</v>
+        <v>0.001607689074</v>
       </c>
       <c r="F5" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G5" t="n">
-        <v>51.9167623466093</v>
+        <v>0.0519167623466093</v>
       </c>
       <c r="H5" t="n">
-        <v>1.2249785315</v>
+        <v>0.0012249785315</v>
       </c>
       <c r="I5" t="n">
-        <v>26.3719813024758</v>
+        <v>0.0263719813024758</v>
       </c>
       <c r="J5" t="n">
-        <v>237.347831722282</v>
+        <v>0.237347831722282</v>
       </c>
       <c r="K5" t="n">
-        <v>262.134073472073</v>
+        <v>0.262134073472073</v>
       </c>
       <c r="L5" t="n">
-        <v>765.69935719591</v>
+        <v>0.76569935719591</v>
       </c>
       <c r="M5" t="n">
         <v>2.92102185364119</v>
@@ -9420,7 +9420,7 @@
         <v>1.33333333333333</v>
       </c>
       <c r="O5" t="n">
-        <v>574.274517896932</v>
+        <v>0.574274517896932</v>
       </c>
       <c r="P5" t="n">
         <v>2.19076639023089</v>
@@ -9443,16 +9443,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>0.842267989</v>
+        <v>0.000842267989</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>9.06639385360603</v>
+        <v>0.00906639385360603</v>
       </c>
       <c r="H6" t="n">
-        <v>1.0383658585</v>
+        <v>0.0010383658585</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -9461,10 +9461,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>262.134073472073</v>
+        <v>0.262134073472073</v>
       </c>
       <c r="L6" t="n">
-        <v>765.69935719591</v>
+        <v>0.76569935719591</v>
       </c>
       <c r="M6" t="n">
         <v>2.92102185364119</v>
@@ -9473,7 +9473,7 @@
         <v>1.33333333333333</v>
       </c>
       <c r="O6" t="n">
-        <v>574.274517896932</v>
+        <v>0.574274517896932</v>
       </c>
       <c r="P6" t="n">
         <v>2.19076639023089</v>
@@ -9496,16 +9496,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E7" t="n">
-        <v>1.234463728</v>
+        <v>0.001234463728</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>13.2880917976319</v>
+        <v>0.0132880917976319</v>
       </c>
       <c r="H7" t="n">
-        <v>1.476776366</v>
+        <v>0.001476776366</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -9514,10 +9514,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>262.134073472073</v>
+        <v>0.262134073472073</v>
       </c>
       <c r="L7" t="n">
-        <v>765.69935719591</v>
+        <v>0.76569935719591</v>
       </c>
       <c r="M7" t="n">
         <v>2.92102185364119</v>
@@ -9526,7 +9526,7 @@
         <v>1.33333333333333</v>
       </c>
       <c r="O7" t="n">
-        <v>574.274517896932</v>
+        <v>0.574274517896932</v>
       </c>
       <c r="P7" t="n">
         <v>2.19076639023089</v>
@@ -9549,16 +9549,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E8" t="n">
-        <v>1.719089004</v>
+        <v>0.001719089004</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>18.5047255543595</v>
+        <v>0.0185047255543595</v>
       </c>
       <c r="H8" t="n">
-        <v>2.3544206035</v>
+        <v>0.0023544206035</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -9567,10 +9567,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>262.134073472073</v>
+        <v>0.262134073472073</v>
       </c>
       <c r="L8" t="n">
-        <v>765.69935719591</v>
+        <v>0.76569935719591</v>
       </c>
       <c r="M8" t="n">
         <v>2.92102185364119</v>
@@ -9579,7 +9579,7 @@
         <v>1.33333333333333</v>
       </c>
       <c r="O8" t="n">
-        <v>574.274517896932</v>
+        <v>0.574274517896932</v>
       </c>
       <c r="P8" t="n">
         <v>2.19076639023089</v>
@@ -9602,16 +9602,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E9" t="n">
-        <v>2.989752203</v>
+        <v>0.002989752203</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>32.1824779655544</v>
+        <v>0.0321824779655544</v>
       </c>
       <c r="H9" t="n">
-        <v>4.9383970345</v>
+        <v>0.0049383970345</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -9620,10 +9620,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>262.134073472073</v>
+        <v>0.262134073472073</v>
       </c>
       <c r="L9" t="n">
-        <v>765.69935719591</v>
+        <v>0.76569935719591</v>
       </c>
       <c r="M9" t="n">
         <v>2.92102185364119</v>
@@ -9632,7 +9632,7 @@
         <v>1.33333333333333</v>
       </c>
       <c r="O9" t="n">
-        <v>574.274517896932</v>
+        <v>0.574274517896932</v>
       </c>
       <c r="P9" t="n">
         <v>2.19076639023089</v>
@@ -9655,28 +9655,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E10" t="n">
-        <v>6.887041866</v>
+        <v>0.006887041866</v>
       </c>
       <c r="F10" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G10" t="n">
-        <v>74.1339275134553</v>
+        <v>0.0741339275134553</v>
       </c>
       <c r="H10" t="n">
-        <v>3.443520933</v>
+        <v>0.003443520933</v>
       </c>
       <c r="I10" t="n">
-        <v>37.0669637567277</v>
+        <v>0.0370669637567277</v>
       </c>
       <c r="J10" t="n">
-        <v>333.602673810549</v>
+        <v>0.333602673810549</v>
       </c>
       <c r="K10" t="n">
-        <v>262.134073472073</v>
+        <v>0.262134073472073</v>
       </c>
       <c r="L10" t="n">
-        <v>765.69935719591</v>
+        <v>0.76569935719591</v>
       </c>
       <c r="M10" t="n">
         <v>2.92102185364119</v>
@@ -9685,7 +9685,7 @@
         <v>1.33333333333333</v>
       </c>
       <c r="O10" t="n">
-        <v>574.274517896932</v>
+        <v>0.574274517896932</v>
       </c>
       <c r="P10" t="n">
         <v>2.19076639023089</v>
@@ -9775,28 +9775,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.281304498</v>
+        <v>0.000281304498</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>3.02803550053821</v>
+        <v>0.00302803550053821</v>
       </c>
       <c r="H2" t="n">
-        <v>0.140652249</v>
+        <v>0.000140652249</v>
       </c>
       <c r="I2" t="n">
-        <v>1.51401775026911</v>
+        <v>0.00151401775026911</v>
       </c>
       <c r="J2" t="n">
-        <v>1.51401775026911</v>
+        <v>0.00151401775026911</v>
       </c>
       <c r="K2" t="n">
-        <v>3.02803550053821</v>
+        <v>0.00302803550053821</v>
       </c>
       <c r="L2" t="n">
-        <v>1.51401775026911</v>
+        <v>0.00151401775026911</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -9805,7 +9805,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.126168145855759</v>
+        <v>0.000126168145855759</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -9895,28 +9895,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.174730753</v>
+        <v>0.000174730753</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>3.76169543595264</v>
+        <v>0.00376169543595264</v>
       </c>
       <c r="H2" t="n">
-        <v>0.18531717</v>
+        <v>0.00018531717</v>
       </c>
       <c r="I2" t="n">
-        <v>1.99480269106566</v>
+        <v>0.00199480269106566</v>
       </c>
       <c r="J2" t="n">
-        <v>5.98440807319699</v>
+        <v>0.00598440807319699</v>
       </c>
       <c r="K2" t="n">
-        <v>9.81550825618945</v>
+        <v>0.00981550825618945</v>
       </c>
       <c r="L2" t="n">
-        <v>11.9019908073197</v>
+        <v>0.0119019908073197</v>
       </c>
       <c r="M2" t="n">
         <v>1.21256999603811</v>
@@ -9925,7 +9925,7 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>2.97549770182993</v>
+        <v>0.00297549770182992</v>
       </c>
       <c r="P2" t="n">
         <v>0.303142499009528</v>
@@ -9948,16 +9948,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.195903587</v>
+        <v>0.000195903587</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.10875766415501</v>
+        <v>0.00210875766415501</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2811996055</v>
+        <v>0.0002811996055</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>9.81550825618945</v>
+        <v>0.00981550825618945</v>
       </c>
       <c r="L3" t="n">
-        <v>11.9019908073197</v>
+        <v>0.0119019908073197</v>
       </c>
       <c r="M3" t="n">
         <v>1.21256999603811</v>
@@ -9978,7 +9978,7 @@
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>2.97549770182993</v>
+        <v>0.00297549770182992</v>
       </c>
       <c r="P3" t="n">
         <v>0.303142499009528</v>
@@ -10001,28 +10001,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.366495624</v>
+        <v>0.000366495624</v>
       </c>
       <c r="F4" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>3.94505515608181</v>
+        <v>0.00394505515608181</v>
       </c>
       <c r="H4" t="n">
-        <v>0.183247812</v>
+        <v>0.000183247812</v>
       </c>
       <c r="I4" t="n">
-        <v>1.9725275780409</v>
+        <v>0.0019725275780409</v>
       </c>
       <c r="J4" t="n">
-        <v>5.91758273412271</v>
+        <v>0.00591758273412271</v>
       </c>
       <c r="K4" t="n">
-        <v>9.81550825618945</v>
+        <v>0.00981550825618945</v>
       </c>
       <c r="L4" t="n">
-        <v>11.9019908073197</v>
+        <v>0.0119019908073197</v>
       </c>
       <c r="M4" t="n">
         <v>1.21256999603811</v>
@@ -10031,7 +10031,7 @@
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>2.97549770182993</v>
+        <v>0.00297549770182992</v>
       </c>
       <c r="P4" t="n">
         <v>0.303142499009528</v>
@@ -10121,16 +10121,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.078470142</v>
+        <v>0.000078470142</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.844673218514532</v>
+        <v>0.000844673218514532</v>
       </c>
       <c r="H2" t="n">
-        <v>0.152560971</v>
+        <v>0.000152560971</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -10139,19 +10139,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.28441272335845</v>
+        <v>0.00328441272335845</v>
       </c>
       <c r="L2" t="n">
-        <v>2.43973950484392</v>
+        <v>0.00243973950484392</v>
       </c>
       <c r="M2" t="n">
-        <v>0.742823667528964</v>
+        <v>0.742823667528965</v>
       </c>
       <c r="N2" t="n">
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>0.40662325080732</v>
+        <v>0.00040662325080732</v>
       </c>
       <c r="P2" t="n">
         <v>0.123803944588161</v>
@@ -10174,37 +10174,37 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2266518</v>
+        <v>0.0002266518</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>2.43973950484392</v>
+        <v>0.00243973950484392</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1133259</v>
+        <v>0.0001133259</v>
       </c>
       <c r="I3" t="n">
-        <v>1.21986975242196</v>
+        <v>0.00121986975242196</v>
       </c>
       <c r="J3" t="n">
-        <v>2.43973950484392</v>
+        <v>0.00243973950484392</v>
       </c>
       <c r="K3" t="n">
-        <v>3.28441272335845</v>
+        <v>0.00328441272335845</v>
       </c>
       <c r="L3" t="n">
-        <v>2.43973950484392</v>
+        <v>0.00243973950484392</v>
       </c>
       <c r="M3" t="n">
-        <v>0.742823667528964</v>
+        <v>0.742823667528965</v>
       </c>
       <c r="N3" t="n">
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>0.40662325080732</v>
+        <v>0.00040662325080732</v>
       </c>
       <c r="P3" t="n">
         <v>0.123803944588161</v>
@@ -10294,28 +10294,28 @@
         <v>18.8374596340151</v>
       </c>
       <c r="E2" t="n">
-        <v>0.016975</v>
+        <v>0.000016975</v>
       </c>
       <c r="F2" t="n">
         <v>8.07319698600646</v>
       </c>
       <c r="G2" t="n">
-        <v>0.319765877287406</v>
+        <v>0.000319765877287406</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2768398565</v>
+        <v>0.0002768398565</v>
       </c>
       <c r="I2" t="n">
-        <v>2.23498269510226</v>
+        <v>0.00223498269510226</v>
       </c>
       <c r="J2" t="n">
-        <v>13.4098961706136</v>
+        <v>0.0134098961706136</v>
       </c>
       <c r="K2" t="n">
-        <v>178.228830064586</v>
+        <v>0.178228830064586</v>
       </c>
       <c r="L2" t="n">
-        <v>259.377140174919</v>
+        <v>0.259377140174919</v>
       </c>
       <c r="M2" t="n">
         <v>1.45530406096998</v>
@@ -10324,7 +10324,7 @@
         <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>129.68857008746</v>
+        <v>0.12968857008746</v>
       </c>
       <c r="P2" t="n">
         <v>0.727652030484988</v>
@@ -10347,16 +10347,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.536704713</v>
+        <v>0.000536704713</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.77723049515608</v>
+        <v>0.00577723049515608</v>
       </c>
       <c r="H3" t="n">
-        <v>0.780340497</v>
+        <v>0.000780340497</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -10365,10 +10365,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>178.228830064586</v>
+        <v>0.178228830064586</v>
       </c>
       <c r="L3" t="n">
-        <v>259.377140174919</v>
+        <v>0.259377140174919</v>
       </c>
       <c r="M3" t="n">
         <v>1.45530406096998</v>
@@ -10377,7 +10377,7 @@
         <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>129.68857008746</v>
+        <v>0.12968857008746</v>
       </c>
       <c r="P3" t="n">
         <v>0.727652030484988</v>
@@ -10400,16 +10400,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>1.023976281</v>
+        <v>0.001023976281</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>11.0223496340151</v>
+        <v>0.0110223496340151</v>
       </c>
       <c r="H4" t="n">
-        <v>1.37992795</v>
+        <v>0.00137992795</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -10418,10 +10418,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>178.228830064586</v>
+        <v>0.178228830064586</v>
       </c>
       <c r="L4" t="n">
-        <v>259.377140174919</v>
+        <v>0.259377140174919</v>
       </c>
       <c r="M4" t="n">
         <v>1.45530406096998</v>
@@ -10430,7 +10430,7 @@
         <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>129.68857008746</v>
+        <v>0.12968857008746</v>
       </c>
       <c r="P4" t="n">
         <v>0.727652030484988</v>
@@ -10453,16 +10453,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>1.735879619</v>
+        <v>0.001735879619</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>18.6854641442411</v>
+        <v>0.0186854641442411</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6751427065</v>
+        <v>0.0036751427065</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -10471,10 +10471,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>178.228830064586</v>
+        <v>0.178228830064586</v>
       </c>
       <c r="L5" t="n">
-        <v>259.377140174919</v>
+        <v>0.259377140174919</v>
       </c>
       <c r="M5" t="n">
         <v>1.45530406096998</v>
@@ -10483,7 +10483,7 @@
         <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>129.68857008746</v>
+        <v>0.12968857008746</v>
       </c>
       <c r="P5" t="n">
         <v>0.727652030484988</v>
@@ -10506,16 +10506,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>5.614405794</v>
+        <v>0.005614405794</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>60.4349385791173</v>
+        <v>0.0604349385791173</v>
       </c>
       <c r="H6" t="n">
-        <v>6.615595725</v>
+        <v>0.006615595725</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -10524,10 +10524,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>178.228830064586</v>
+        <v>0.178228830064586</v>
       </c>
       <c r="L6" t="n">
-        <v>259.377140174919</v>
+        <v>0.259377140174919</v>
       </c>
       <c r="M6" t="n">
         <v>1.45530406096998</v>
@@ -10536,7 +10536,7 @@
         <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>129.68857008746</v>
+        <v>0.12968857008746</v>
       </c>
       <c r="P6" t="n">
         <v>0.727652030484988</v>
@@ -10559,28 +10559,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E7" t="n">
-        <v>7.616785656</v>
+        <v>0.007616785656</v>
       </c>
       <c r="F7" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G7" t="n">
-        <v>81.9890813347686</v>
+        <v>0.0819890813347686</v>
       </c>
       <c r="H7" t="n">
-        <v>3.808392828</v>
+        <v>0.003808392828</v>
       </c>
       <c r="I7" t="n">
-        <v>40.9945406673843</v>
+        <v>0.0409945406673843</v>
       </c>
       <c r="J7" t="n">
-        <v>245.967244004306</v>
+        <v>0.245967244004306</v>
       </c>
       <c r="K7" t="n">
-        <v>178.228830064586</v>
+        <v>0.178228830064586</v>
       </c>
       <c r="L7" t="n">
-        <v>259.377140174919</v>
+        <v>0.259377140174919</v>
       </c>
       <c r="M7" t="n">
         <v>1.45530406096998</v>
@@ -10589,7 +10589,7 @@
         <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>129.68857008746</v>
+        <v>0.12968857008746</v>
       </c>
       <c r="P7" t="n">
         <v>0.727652030484988</v>
@@ -10679,28 +10679,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.087739896</v>
+        <v>0.000087739896</v>
       </c>
       <c r="F2" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G2" t="n">
-        <v>1.88891057050592</v>
+        <v>0.00188891057050592</v>
       </c>
       <c r="H2" t="n">
-        <v>0.043869948</v>
+        <v>0.000043869948</v>
       </c>
       <c r="I2" t="n">
-        <v>0.94445528525296</v>
+        <v>0.00094445528525296</v>
       </c>
       <c r="J2" t="n">
-        <v>0.94445528525296</v>
+        <v>0.00094445528525296</v>
       </c>
       <c r="K2" t="n">
-        <v>1.88891057050592</v>
+        <v>0.00188891057050592</v>
       </c>
       <c r="L2" t="n">
-        <v>0.94445528525296</v>
+        <v>0.00094445528525296</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -10709,7 +10709,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0787046071044133</v>
+        <v>0.0000787046071044133</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -10799,16 +10799,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0194</v>
+        <v>0.0000194</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.208826695371367</v>
+        <v>0.000208826695371367</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6680686535</v>
+        <v>0.0036680686535</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -10817,10 +10817,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>78.9681087944026</v>
+        <v>0.0789681087944026</v>
       </c>
       <c r="L2" t="n">
-        <v>78.7592820990312</v>
+        <v>0.0787592820990312</v>
       </c>
       <c r="M2" t="n">
         <v>0.99735555658405</v>
@@ -10829,7 +10829,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>13.1265470165052</v>
+        <v>0.0131265470165052</v>
       </c>
       <c r="P2" t="n">
         <v>0.166225926097342</v>
@@ -10852,28 +10852,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>7.316737307</v>
+        <v>0.007316737307</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>78.7592820990312</v>
+        <v>0.0787592820990312</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6583686535</v>
+        <v>0.0036583686535</v>
       </c>
       <c r="I3" t="n">
-        <v>39.3796410495156</v>
+        <v>0.0393796410495156</v>
       </c>
       <c r="J3" t="n">
-        <v>78.7592820990312</v>
+        <v>0.0787592820990312</v>
       </c>
       <c r="K3" t="n">
-        <v>78.9681087944026</v>
+        <v>0.0789681087944026</v>
       </c>
       <c r="L3" t="n">
-        <v>78.7592820990312</v>
+        <v>0.0787592820990312</v>
       </c>
       <c r="M3" t="n">
         <v>0.99735555658405</v>
@@ -10882,7 +10882,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>13.1265470165052</v>
+        <v>0.0131265470165052</v>
       </c>
       <c r="P3" t="n">
         <v>0.166225926097342</v>
@@ -10972,28 +10972,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.007603162</v>
+        <v>0.000007603162</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.163684865446717</v>
+        <v>0.000163684865446717</v>
       </c>
       <c r="H2" t="n">
-        <v>0.005703162</v>
+        <v>0.000005703162</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0613903336921421</v>
+        <v>0.0000613903336921421</v>
       </c>
       <c r="J2" t="n">
-        <v>0.245561334768568</v>
+        <v>0.000245561334768568</v>
       </c>
       <c r="K2" t="n">
-        <v>0.286518794402583</v>
+        <v>0.000286518794402583</v>
       </c>
       <c r="L2" t="n">
-        <v>0.327465296017223</v>
+        <v>0.000327465296017223</v>
       </c>
       <c r="M2" t="n">
         <v>1.14291035148328</v>
@@ -11002,7 +11002,7 @@
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>0.109155098672408</v>
+        <v>0.000109155098672408</v>
       </c>
       <c r="P2" t="n">
         <v>0.380970117161094</v>
@@ -11025,16 +11025,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.003803162</v>
+        <v>0.000003803162</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0409382346609257</v>
+        <v>0.0000409382346609257</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0038034165</v>
+        <v>0.0000038034165</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -11043,10 +11043,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.286518794402583</v>
+        <v>0.000286518794402583</v>
       </c>
       <c r="L3" t="n">
-        <v>0.327465296017223</v>
+        <v>0.000327465296017223</v>
       </c>
       <c r="M3" t="n">
         <v>1.14291035148328</v>
@@ -11055,7 +11055,7 @@
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>0.109155098672408</v>
+        <v>0.000109155098672408</v>
       </c>
       <c r="P3" t="n">
         <v>0.380970117161094</v>
@@ -11078,16 +11078,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003803671</v>
+        <v>0.000003803671</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0409437136706136</v>
+        <v>0.0000409437136706136</v>
       </c>
       <c r="H4" t="n">
-        <v>0.003804055</v>
+        <v>0.000003804055</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -11096,10 +11096,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.286518794402583</v>
+        <v>0.000286518794402583</v>
       </c>
       <c r="L4" t="n">
-        <v>0.327465296017223</v>
+        <v>0.000327465296017223</v>
       </c>
       <c r="M4" t="n">
         <v>1.14291035148328</v>
@@ -11108,7 +11108,7 @@
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>0.109155098672408</v>
+        <v>0.000109155098672408</v>
       </c>
       <c r="P4" t="n">
         <v>0.380970117161094</v>
@@ -11131,28 +11131,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.003804439</v>
+        <v>0.000003804439</v>
       </c>
       <c r="F5" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0409519806243272</v>
+        <v>0.0000409519806243272</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0019022195</v>
+        <v>0.0000019022195</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0204759903121636</v>
+        <v>0.0000204759903121636</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0819039612486545</v>
+        <v>0.0000819039612486545</v>
       </c>
       <c r="K5" t="n">
-        <v>0.286518794402583</v>
+        <v>0.000286518794402583</v>
       </c>
       <c r="L5" t="n">
-        <v>0.327465296017223</v>
+        <v>0.000327465296017223</v>
       </c>
       <c r="M5" t="n">
         <v>1.14291035148328</v>
@@ -11161,7 +11161,7 @@
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>0.109155098672408</v>
+        <v>0.000109155098672408</v>
       </c>
       <c r="P5" t="n">
         <v>0.380970117161094</v>
@@ -11251,28 +11251,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>1.3221494</v>
+        <v>0.0013221494</v>
       </c>
       <c r="F2" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>14.231963401507</v>
+        <v>0.014231963401507</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4447718365</v>
+        <v>0.0034447718365</v>
       </c>
       <c r="I2" t="n">
-        <v>-37.080428810549</v>
+        <v>-0.037080428810549</v>
       </c>
       <c r="J2" t="n">
-        <v>-296.643430484392</v>
+        <v>-0.296643430484392</v>
       </c>
       <c r="K2" t="n">
-        <v>4965.98582421959</v>
+        <v>4.96598582421959</v>
       </c>
       <c r="L2" t="n">
-        <v>14218.5831293864</v>
+        <v>14.2185831293864</v>
       </c>
       <c r="M2" t="n">
         <v>2.86319446584826</v>
@@ -11281,7 +11281,7 @@
         <v>1.5</v>
       </c>
       <c r="O2" t="n">
-        <v>9479.05541959096</v>
+        <v>9.47905541959096</v>
       </c>
       <c r="P2" t="n">
         <v>1.90879631056551</v>
@@ -11304,16 +11304,16 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E3" t="n">
-        <v>5.567394273</v>
+        <v>0.005567394273</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>119.857788439182</v>
+        <v>0.119857788439182</v>
       </c>
       <c r="H3" t="n">
-        <v>7.7430509875</v>
+        <v>0.0077430509875</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -11322,10 +11322,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4965.98582421959</v>
+        <v>4.96598582421959</v>
       </c>
       <c r="L3" t="n">
-        <v>14218.5831293864</v>
+        <v>14.2185831293864</v>
       </c>
       <c r="M3" t="n">
         <v>2.86319446584826</v>
@@ -11334,7 +11334,7 @@
         <v>1.5</v>
       </c>
       <c r="O3" t="n">
-        <v>9479.05541959096</v>
+        <v>9.47905541959096</v>
       </c>
       <c r="P3" t="n">
         <v>1.90879631056551</v>
@@ -11357,28 +11357,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E4" t="n">
-        <v>9.918707702</v>
+        <v>0.009918707702</v>
       </c>
       <c r="F4" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>213.535149666308</v>
+        <v>0.213535149666308</v>
       </c>
       <c r="H4" t="n">
-        <v>16.883778131</v>
+        <v>0.016883778131</v>
       </c>
       <c r="I4" t="n">
-        <v>-181.741422292788</v>
+        <v>-0.181741422292788</v>
       </c>
       <c r="J4" t="n">
-        <v>-1453.9313783423</v>
+        <v>-1.4539313783423</v>
       </c>
       <c r="K4" t="n">
-        <v>4965.98582421959</v>
+        <v>4.96598582421959</v>
       </c>
       <c r="L4" t="n">
-        <v>14218.5831293864</v>
+        <v>14.2185831293864</v>
       </c>
       <c r="M4" t="n">
         <v>2.86319446584826</v>
@@ -11387,7 +11387,7 @@
         <v>1.5</v>
       </c>
       <c r="O4" t="n">
-        <v>9479.05541959096</v>
+        <v>9.47905541959096</v>
       </c>
       <c r="P4" t="n">
         <v>1.90879631056551</v>
@@ -11410,16 +11410,16 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E5" t="n">
-        <v>23.84884856</v>
+        <v>0.02384884856</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>770.145809257266</v>
+        <v>0.770145809257266</v>
       </c>
       <c r="H5" t="n">
-        <v>29.69476324</v>
+        <v>0.02969476324</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -11428,10 +11428,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>4965.98582421959</v>
+        <v>4.96598582421959</v>
       </c>
       <c r="L5" t="n">
-        <v>14218.5831293864</v>
+        <v>14.2185831293864</v>
       </c>
       <c r="M5" t="n">
         <v>2.86319446584826</v>
@@ -11440,7 +11440,7 @@
         <v>1.5</v>
       </c>
       <c r="O5" t="n">
-        <v>9479.05541959096</v>
+        <v>9.47905541959096</v>
       </c>
       <c r="P5" t="n">
         <v>1.90879631056551</v>
@@ -11463,28 +11463,28 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E6" t="n">
-        <v>35.54067792</v>
+        <v>0.03554067792</v>
       </c>
       <c r="F6" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G6" t="n">
-        <v>1147.70757545748</v>
+        <v>1.14770757545748</v>
       </c>
       <c r="H6" t="n">
-        <v>26.139031565</v>
+        <v>0.026139031565</v>
       </c>
       <c r="I6" t="n">
-        <v>562.734802260495</v>
+        <v>0.562734802260495</v>
       </c>
       <c r="J6" t="n">
-        <v>4501.87841808396</v>
+        <v>4.50187841808396</v>
       </c>
       <c r="K6" t="n">
-        <v>4965.98582421959</v>
+        <v>4.96598582421959</v>
       </c>
       <c r="L6" t="n">
-        <v>14218.5831293864</v>
+        <v>14.2185831293864</v>
       </c>
       <c r="M6" t="n">
         <v>2.86319446584826</v>
@@ -11493,7 +11493,7 @@
         <v>1.5</v>
       </c>
       <c r="O6" t="n">
-        <v>9479.05541959096</v>
+        <v>9.47905541959096</v>
       </c>
       <c r="P6" t="n">
         <v>1.90879631056551</v>
@@ -11516,28 +11516,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E7" t="n">
-        <v>16.73738521</v>
+        <v>0.01673738521</v>
       </c>
       <c r="F7" t="n">
         <v>-21.5285252960172</v>
       </c>
       <c r="G7" t="n">
-        <v>180.165610441335</v>
+        <v>0.180165610441335</v>
       </c>
       <c r="H7" t="n">
-        <v>42.42218034</v>
+        <v>0.04242218034</v>
       </c>
       <c r="I7" t="n">
-        <v>-913.286982561894</v>
+        <v>-0.913286982561894</v>
       </c>
       <c r="J7" t="n">
-        <v>-7306.29586049516</v>
+        <v>-7.30629586049516</v>
       </c>
       <c r="K7" t="n">
-        <v>4965.98582421959</v>
+        <v>4.96598582421959</v>
       </c>
       <c r="L7" t="n">
-        <v>14218.5831293864</v>
+        <v>14.2185831293864</v>
       </c>
       <c r="M7" t="n">
         <v>2.86319446584826</v>
@@ -11546,7 +11546,7 @@
         <v>1.5</v>
       </c>
       <c r="O7" t="n">
-        <v>9479.05541959096</v>
+        <v>9.47905541959096</v>
       </c>
       <c r="P7" t="n">
         <v>1.90879631056551</v>
@@ -11569,28 +11569,28 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E8" t="n">
-        <v>68.10697547</v>
+        <v>0.06810697547</v>
       </c>
       <c r="F8" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G8" t="n">
-        <v>2199.36411636168</v>
+        <v>2.19936411636168</v>
       </c>
       <c r="H8" t="n">
-        <v>48.962907065</v>
+        <v>0.048962907065</v>
       </c>
       <c r="I8" t="n">
-        <v>1054.09918331539</v>
+        <v>1.05409918331539</v>
       </c>
       <c r="J8" t="n">
-        <v>8432.79346652314</v>
+        <v>8.43279346652314</v>
       </c>
       <c r="K8" t="n">
-        <v>4965.98582421959</v>
+        <v>4.96598582421959</v>
       </c>
       <c r="L8" t="n">
-        <v>14218.5831293864</v>
+        <v>14.2185831293864</v>
       </c>
       <c r="M8" t="n">
         <v>2.86319446584826</v>
@@ -11599,7 +11599,7 @@
         <v>1.5</v>
       </c>
       <c r="O8" t="n">
-        <v>9479.05541959096</v>
+        <v>9.47905541959096</v>
       </c>
       <c r="P8" t="n">
         <v>1.90879631056551</v>
@@ -11622,28 +11622,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E9" t="n">
-        <v>29.81883866</v>
+        <v>0.02981883866</v>
       </c>
       <c r="F9" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G9" t="n">
-        <v>320.977811194833</v>
+        <v>0.320977811194833</v>
       </c>
       <c r="H9" t="n">
-        <v>14.90941933</v>
+        <v>0.01490941933</v>
       </c>
       <c r="I9" t="n">
-        <v>160.488905597417</v>
+        <v>0.160488905597417</v>
       </c>
       <c r="J9" t="n">
-        <v>1283.91124477933</v>
+        <v>1.28391124477933</v>
       </c>
       <c r="K9" t="n">
-        <v>4965.98582421959</v>
+        <v>4.96598582421959</v>
       </c>
       <c r="L9" t="n">
-        <v>14218.5831293864</v>
+        <v>14.2185831293864</v>
       </c>
       <c r="M9" t="n">
         <v>2.86319446584826</v>
@@ -11652,7 +11652,7 @@
         <v>1.5</v>
       </c>
       <c r="O9" t="n">
-        <v>9479.05541959096</v>
+        <v>9.47905541959096</v>
       </c>
       <c r="P9" t="n">
         <v>1.90879631056551</v>
@@ -11742,28 +11742,28 @@
         <v>25.1166128453534</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00186666666666667</v>
+        <v>0.00000186666666666667</v>
       </c>
       <c r="F2" t="n">
         <v>-7.17617509867241</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0468843439779931</v>
+        <v>0.0000468843439779931</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00888377133333333</v>
+        <v>0.00000888377133333333</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0637514986245665</v>
+        <v>-0.0000637514986245665</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.191254495873699</v>
+        <v>-0.000191254495873699</v>
       </c>
       <c r="K2" t="n">
-        <v>0.732817110393494</v>
+        <v>0.000732817110393494</v>
       </c>
       <c r="L2" t="n">
-        <v>1.28950479009688</v>
+        <v>0.00128950479009688</v>
       </c>
       <c r="M2" t="n">
         <v>1.75965431457307</v>
@@ -11772,7 +11772,7 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>0.32237619752422</v>
+        <v>0.00032237619752422</v>
       </c>
       <c r="P2" t="n">
         <v>0.439913578643267</v>
@@ -11795,28 +11795,28 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E3" t="n">
-        <v>0.015900876</v>
+        <v>0.000015900876</v>
       </c>
       <c r="F3" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G3" t="n">
-        <v>0.51348361679225</v>
+        <v>0.00051348361679225</v>
       </c>
       <c r="H3" t="n">
-        <v>0.015960701</v>
+        <v>0.000015960701</v>
       </c>
       <c r="I3" t="n">
-        <v>0.343610355220668</v>
+        <v>0.000343610355220667</v>
       </c>
       <c r="J3" t="n">
-        <v>1.030831065662</v>
+        <v>0.001030831065662</v>
       </c>
       <c r="K3" t="n">
-        <v>0.732817110393494</v>
+        <v>0.000732817110393494</v>
       </c>
       <c r="L3" t="n">
-        <v>1.28950479009688</v>
+        <v>0.00128950479009688</v>
       </c>
       <c r="M3" t="n">
         <v>1.75965431457307</v>
@@ -11825,7 +11825,7 @@
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>0.32237619752422</v>
+        <v>0.00032237619752422</v>
       </c>
       <c r="P3" t="n">
         <v>0.439913578643267</v>
@@ -11848,28 +11848,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.016020526</v>
+        <v>0.000016020526</v>
       </c>
       <c r="F4" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>0.172449149623251</v>
+        <v>0.000172449149623251</v>
       </c>
       <c r="H4" t="n">
-        <v>0.008010263</v>
+        <v>0.000008010263</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0862245748116254</v>
+        <v>0.0000862245748116254</v>
       </c>
       <c r="J4" t="n">
-        <v>0.258673724434876</v>
+        <v>0.000258673724434876</v>
       </c>
       <c r="K4" t="n">
-        <v>0.732817110393494</v>
+        <v>0.000732817110393494</v>
       </c>
       <c r="L4" t="n">
-        <v>1.28950479009688</v>
+        <v>0.00128950479009688</v>
       </c>
       <c r="M4" t="n">
         <v>1.75965431457307</v>
@@ -11878,7 +11878,7 @@
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>0.32237619752422</v>
+        <v>0.00032237619752422</v>
       </c>
       <c r="P4" t="n">
         <v>0.439913578643267</v>
@@ -11968,16 +11968,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>6.488834372</v>
+        <v>0.006488834372</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>69.847517459634</v>
+        <v>0.069847517459634</v>
       </c>
       <c r="H2" t="n">
-        <v>14.223272176</v>
+        <v>0.014223272176</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -11986,10 +11986,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>306.206074833154</v>
+        <v>0.306206074833154</v>
       </c>
       <c r="L2" t="n">
-        <v>236.35855737352</v>
+        <v>0.23635855737352</v>
       </c>
       <c r="M2" t="n">
         <v>0.771893756524286</v>
@@ -11998,7 +11998,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>39.3930928955867</v>
+        <v>0.0393930928955867</v>
       </c>
       <c r="P2" t="n">
         <v>0.128648959420714</v>
@@ -12021,28 +12021,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>21.95770998</v>
+        <v>0.02195770998</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>236.35855737352</v>
+        <v>0.23635855737352</v>
       </c>
       <c r="H3" t="n">
-        <v>10.97885499</v>
+        <v>0.01097885499</v>
       </c>
       <c r="I3" t="n">
-        <v>118.17927868676</v>
+        <v>0.11817927868676</v>
       </c>
       <c r="J3" t="n">
-        <v>236.35855737352</v>
+        <v>0.23635855737352</v>
       </c>
       <c r="K3" t="n">
-        <v>306.206074833154</v>
+        <v>0.306206074833154</v>
       </c>
       <c r="L3" t="n">
-        <v>236.35855737352</v>
+        <v>0.23635855737352</v>
       </c>
       <c r="M3" t="n">
         <v>0.771893756524286</v>
@@ -12051,7 +12051,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>39.3930928955867</v>
+        <v>0.0393930928955867</v>
       </c>
       <c r="P3" t="n">
         <v>0.128648959420714</v>
@@ -12141,16 +12141,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.046082948</v>
+        <v>0.000046082948</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.496048955866523</v>
+        <v>0.000496048955866523</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0942277275</v>
+        <v>0.0000942277275</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -12159,10 +12159,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.02858401506997</v>
+        <v>0.00202858401506997</v>
       </c>
       <c r="L2" t="n">
-        <v>1.53253505920344</v>
+        <v>0.00153253505920344</v>
       </c>
       <c r="M2" t="n">
         <v>0.755470341784482</v>
@@ -12171,7 +12171,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>0.255422509867241</v>
+        <v>0.000255422509867241</v>
       </c>
       <c r="P2" t="n">
         <v>0.125911723630747</v>
@@ -12194,28 +12194,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.142372507</v>
+        <v>0.000142372507</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>1.53253505920344</v>
+        <v>0.00153253505920344</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0711862535</v>
+        <v>0.0000711862535</v>
       </c>
       <c r="I3" t="n">
-        <v>0.766267529601722</v>
+        <v>0.000766267529601722</v>
       </c>
       <c r="J3" t="n">
-        <v>1.53253505920344</v>
+        <v>0.00153253505920344</v>
       </c>
       <c r="K3" t="n">
-        <v>2.02858401506997</v>
+        <v>0.00202858401506997</v>
       </c>
       <c r="L3" t="n">
-        <v>1.53253505920344</v>
+        <v>0.00153253505920344</v>
       </c>
       <c r="M3" t="n">
         <v>0.755470341784482</v>
@@ -12224,7 +12224,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>0.255422509867241</v>
+        <v>0.000255422509867241</v>
       </c>
       <c r="P3" t="n">
         <v>0.125911723630747</v>
@@ -12314,28 +12314,28 @@
         <v>150.699677072121</v>
       </c>
       <c r="E2" t="n">
-        <v>0.056</v>
+        <v>0.000056</v>
       </c>
       <c r="F2" t="n">
         <v>-109.795479009688</v>
       </c>
       <c r="G2" t="n">
-        <v>8.43918191603875</v>
+        <v>0.00843918191603875</v>
       </c>
       <c r="H2" t="n">
-        <v>0.365432627350463</v>
+        <v>0.000365432627350463</v>
       </c>
       <c r="I2" t="n">
-        <v>-40.1228503657129</v>
+        <v>-0.0401228503657129</v>
       </c>
       <c r="J2" t="n">
-        <v>-160.491401462851</v>
+        <v>-0.160491401462851</v>
       </c>
       <c r="K2" t="n">
-        <v>191.418933996964</v>
+        <v>0.191418933996964</v>
       </c>
       <c r="L2" t="n">
-        <v>415.986792345056</v>
+        <v>0.415986792345056</v>
       </c>
       <c r="M2" t="n">
         <v>2.17317474117609</v>
@@ -12344,7 +12344,7 @@
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>138.662264115019</v>
+        <v>0.138662264115019</v>
       </c>
       <c r="P2" t="n">
         <v>0.72439158039203</v>
@@ -12367,28 +12367,28 @@
         <v>260.495156081808</v>
       </c>
       <c r="E3" t="n">
-        <v>0.674865254700926</v>
+        <v>0.000674865254700926</v>
       </c>
       <c r="F3" t="n">
         <v>246.142805884464</v>
       </c>
       <c r="G3" t="n">
-        <v>175.799129857507</v>
+        <v>0.175799129857507</v>
       </c>
       <c r="H3" t="n">
-        <v>0.407482034683796</v>
+        <v>0.000407482034683796</v>
       </c>
       <c r="I3" t="n">
-        <v>100.29877136458</v>
+        <v>0.10029877136458</v>
       </c>
       <c r="J3" t="n">
-        <v>401.19508545832</v>
+        <v>0.40119508545832</v>
       </c>
       <c r="K3" t="n">
-        <v>191.418933996964</v>
+        <v>0.191418933996964</v>
       </c>
       <c r="L3" t="n">
-        <v>415.986792345056</v>
+        <v>0.415986792345056</v>
       </c>
       <c r="M3" t="n">
         <v>2.17317474117609</v>
@@ -12397,7 +12397,7 @@
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>138.662264115019</v>
+        <v>0.138662264115019</v>
       </c>
       <c r="P3" t="n">
         <v>0.72439158039203</v>
@@ -12420,28 +12420,28 @@
         <v>14.3523501973448</v>
       </c>
       <c r="E4" t="n">
-        <v>0.140098814666667</v>
+        <v>0.000140098814666667</v>
       </c>
       <c r="F4" t="n">
         <v>3.5880875493362</v>
       </c>
       <c r="G4" t="n">
-        <v>2.01074725032891</v>
+        <v>0.00201074725032891</v>
       </c>
       <c r="H4" t="n">
-        <v>0.310190099833333</v>
+        <v>0.000310190099833333</v>
       </c>
       <c r="I4" t="n">
-        <v>1.11298923513934</v>
+        <v>0.00111298923513934</v>
       </c>
       <c r="J4" t="n">
-        <v>4.45195694055735</v>
+        <v>0.00445195694055735</v>
       </c>
       <c r="K4" t="n">
-        <v>191.418933996964</v>
+        <v>0.191418933996964</v>
       </c>
       <c r="L4" t="n">
-        <v>415.986792345056</v>
+        <v>0.415986792345056</v>
       </c>
       <c r="M4" t="n">
         <v>2.17317474117609</v>
@@ -12450,7 +12450,7 @@
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>138.662264115019</v>
+        <v>0.138662264115019</v>
       </c>
       <c r="P4" t="n">
         <v>0.72439158039203</v>
@@ -12473,28 +12473,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.480281385</v>
+        <v>0.000480281385</v>
       </c>
       <c r="F5" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G5" t="n">
-        <v>5.16987497308934</v>
+        <v>0.00516987497308934</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2401406925</v>
+        <v>0.0002401406925</v>
       </c>
       <c r="I5" t="n">
-        <v>2.58493748654467</v>
+        <v>0.00258493748654467</v>
       </c>
       <c r="J5" t="n">
-        <v>10.3397499461787</v>
+        <v>0.0103397499461787</v>
       </c>
       <c r="K5" t="n">
-        <v>191.418933996964</v>
+        <v>0.191418933996964</v>
       </c>
       <c r="L5" t="n">
-        <v>415.986792345056</v>
+        <v>0.415986792345056</v>
       </c>
       <c r="M5" t="n">
         <v>2.17317474117609</v>
@@ -12503,7 +12503,7 @@
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>138.662264115019</v>
+        <v>0.138662264115019</v>
       </c>
       <c r="P5" t="n">
         <v>0.72439158039203</v>
@@ -12593,16 +12593,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.316925387</v>
+        <v>0.000316925387</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.41146810548977</v>
+        <v>0.00341146810548977</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4473389705</v>
+        <v>0.0004473389705</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -12611,10 +12611,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>25.0105613885899</v>
+        <v>0.0250105613885899</v>
       </c>
       <c r="L2" t="n">
-        <v>23.0700195694295</v>
+        <v>0.0230700195694295</v>
       </c>
       <c r="M2" t="n">
         <v>0.92241110509236</v>
@@ -12623,7 +12623,7 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>5.76750489235737</v>
+        <v>0.00576750489235737</v>
       </c>
       <c r="P2" t="n">
         <v>0.23060277627309</v>
@@ -12646,16 +12646,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.577752554</v>
+        <v>0.000577752554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.21908023681378</v>
+        <v>0.00621908023681378</v>
       </c>
       <c r="H3" t="n">
-        <v>1.003277883</v>
+        <v>0.001003277883</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -12664,10 +12664,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>25.0105613885899</v>
+        <v>0.0250105613885899</v>
       </c>
       <c r="L3" t="n">
-        <v>23.0700195694295</v>
+        <v>0.0230700195694295</v>
       </c>
       <c r="M3" t="n">
         <v>0.92241110509236</v>
@@ -12676,7 +12676,7 @@
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>5.76750489235737</v>
+        <v>0.00576750489235737</v>
       </c>
       <c r="P3" t="n">
         <v>0.23060277627309</v>
@@ -12699,28 +12699,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>1.428803212</v>
+        <v>0.001428803212</v>
       </c>
       <c r="F4" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>15.3800130462863</v>
+        <v>0.0153800130462863</v>
       </c>
       <c r="H4" t="n">
-        <v>0.714401606</v>
+        <v>0.000714401606</v>
       </c>
       <c r="I4" t="n">
-        <v>7.69000652314317</v>
+        <v>0.00769000652314317</v>
       </c>
       <c r="J4" t="n">
-        <v>23.0700195694295</v>
+        <v>0.0230700195694295</v>
       </c>
       <c r="K4" t="n">
-        <v>25.0105613885899</v>
+        <v>0.0250105613885899</v>
       </c>
       <c r="L4" t="n">
-        <v>23.0700195694295</v>
+        <v>0.0230700195694295</v>
       </c>
       <c r="M4" t="n">
         <v>0.92241110509236</v>
@@ -12729,7 +12729,7 @@
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>5.76750489235737</v>
+        <v>0.00576750489235737</v>
       </c>
       <c r="P4" t="n">
         <v>0.23060277627309</v>
@@ -12819,16 +12819,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.041036023</v>
+        <v>0.000041036023</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.441722529601722</v>
+        <v>0.000441722529601722</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0777741755</v>
+        <v>0.0000777741755</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -12837,10 +12837,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>184.898910430571</v>
+        <v>0.184898910430571</v>
       </c>
       <c r="L2" t="n">
-        <v>437.602839558665</v>
+        <v>0.437602839558665</v>
       </c>
       <c r="M2" t="n">
         <v>2.36671399814973</v>
@@ -12849,10 +12849,10 @@
         <v>2.4</v>
       </c>
       <c r="O2" t="n">
-        <v>182.334516482777</v>
+        <v>0.182334516482777</v>
       </c>
       <c r="P2" t="n">
-        <v>0.98613083256239</v>
+        <v>0.986130832562389</v>
       </c>
       <c r="Q2" t="n">
         <v>0.18268948765714</v>
@@ -12872,28 +12872,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.114512328</v>
+        <v>0.000114512328</v>
       </c>
       <c r="F3" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>1.23264077502691</v>
+        <v>0.00123264077502691</v>
       </c>
       <c r="H3" t="n">
-        <v>0.294432954</v>
+        <v>0.000294432954</v>
       </c>
       <c r="I3" t="n">
-        <v>-3.16935364908504</v>
+        <v>-0.00316935364908504</v>
       </c>
       <c r="J3" t="n">
-        <v>-15.8467682454252</v>
+        <v>-0.0158467682454252</v>
       </c>
       <c r="K3" t="n">
-        <v>184.898910430571</v>
+        <v>0.184898910430571</v>
       </c>
       <c r="L3" t="n">
-        <v>437.602839558665</v>
+        <v>0.437602839558665</v>
       </c>
       <c r="M3" t="n">
         <v>2.36671399814973</v>
@@ -12902,10 +12902,10 @@
         <v>2.4</v>
       </c>
       <c r="O3" t="n">
-        <v>182.334516482777</v>
+        <v>0.182334516482777</v>
       </c>
       <c r="P3" t="n">
-        <v>0.98613083256239</v>
+        <v>0.986130832562389</v>
       </c>
       <c r="Q3" t="n">
         <v>0.18268948765714</v>
@@ -12925,28 +12925,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E4" t="n">
-        <v>0.47435358</v>
+        <v>0.00047435358</v>
       </c>
       <c r="F4" t="n">
         <v>-21.5285252960172</v>
       </c>
       <c r="G4" t="n">
-        <v>10.2121330462863</v>
+        <v>0.0102121330462863</v>
       </c>
       <c r="H4" t="n">
-        <v>1.5608755415</v>
+        <v>0.0015608755415</v>
       </c>
       <c r="I4" t="n">
-        <v>-33.6033485791173</v>
+        <v>-0.0336033485791173</v>
       </c>
       <c r="J4" t="n">
-        <v>-168.016742895587</v>
+        <v>-0.168016742895587</v>
       </c>
       <c r="K4" t="n">
-        <v>184.898910430571</v>
+        <v>0.184898910430571</v>
       </c>
       <c r="L4" t="n">
-        <v>437.602839558665</v>
+        <v>0.437602839558665</v>
       </c>
       <c r="M4" t="n">
         <v>2.36671399814973</v>
@@ -12955,10 +12955,10 @@
         <v>2.4</v>
       </c>
       <c r="O4" t="n">
-        <v>182.334516482777</v>
+        <v>0.182334516482777</v>
       </c>
       <c r="P4" t="n">
-        <v>0.98613083256239</v>
+        <v>0.986130832562389</v>
       </c>
       <c r="Q4" t="n">
         <v>0.18268948765714</v>
@@ -12978,28 +12978,28 @@
         <v>43.0570505920345</v>
       </c>
       <c r="E5" t="n">
-        <v>2.647397503</v>
+        <v>0.002647397503</v>
       </c>
       <c r="F5" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G5" t="n">
-        <v>113.989128223897</v>
+        <v>0.113989128223897</v>
       </c>
       <c r="H5" t="n">
-        <v>2.6945145655</v>
+        <v>0.0026945145655</v>
       </c>
       <c r="I5" t="n">
-        <v>58.0089249838536</v>
+        <v>0.0580089249838536</v>
       </c>
       <c r="J5" t="n">
-        <v>290.044624919268</v>
+        <v>0.290044624919268</v>
       </c>
       <c r="K5" t="n">
-        <v>184.898910430571</v>
+        <v>0.184898910430571</v>
       </c>
       <c r="L5" t="n">
-        <v>437.602839558665</v>
+        <v>0.437602839558665</v>
       </c>
       <c r="M5" t="n">
         <v>2.36671399814973</v>
@@ -13008,10 +13008,10 @@
         <v>2.4</v>
       </c>
       <c r="O5" t="n">
-        <v>182.334516482777</v>
+        <v>0.182334516482777</v>
       </c>
       <c r="P5" t="n">
-        <v>0.98613083256239</v>
+        <v>0.986130832562389</v>
       </c>
       <c r="Q5" t="n">
         <v>0.18268948765714</v>
@@ -13031,28 +13031,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E6" t="n">
-        <v>2.741631628</v>
+        <v>0.002741631628</v>
       </c>
       <c r="F6" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G6" t="n">
-        <v>59.0232858557589</v>
+        <v>0.0590232858557589</v>
       </c>
       <c r="H6" t="n">
-        <v>1.370815814</v>
+        <v>0.001370815814</v>
       </c>
       <c r="I6" t="n">
-        <v>29.5116429278794</v>
+        <v>0.0295116429278794</v>
       </c>
       <c r="J6" t="n">
-        <v>147.558214639397</v>
+        <v>0.147558214639397</v>
       </c>
       <c r="K6" t="n">
-        <v>184.898910430571</v>
+        <v>0.184898910430571</v>
       </c>
       <c r="L6" t="n">
-        <v>437.602839558665</v>
+        <v>0.437602839558665</v>
       </c>
       <c r="M6" t="n">
         <v>2.36671399814973</v>
@@ -13061,10 +13061,10 @@
         <v>2.4</v>
       </c>
       <c r="O6" t="n">
-        <v>182.334516482777</v>
+        <v>0.182334516482777</v>
       </c>
       <c r="P6" t="n">
-        <v>0.98613083256239</v>
+        <v>0.986130832562389</v>
       </c>
       <c r="Q6" t="n">
         <v>0.18268948765714</v>
@@ -13151,16 +13151,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.025193855</v>
+        <v>0.000025193855</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.271193272335845</v>
+        <v>0.000271193272335845</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0495616055</v>
+        <v>0.0000495616055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -13169,10 +13169,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>28.867458934338</v>
+        <v>0.028867458934338</v>
       </c>
       <c r="L2" t="n">
-        <v>41.70070598493</v>
+        <v>0.04170070598493</v>
       </c>
       <c r="M2" t="n">
         <v>1.44455755803732</v>
@@ -13181,7 +13181,7 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>10.4251764962325</v>
+        <v>0.0104251764962325</v>
       </c>
       <c r="P2" t="n">
         <v>0.361139389509331</v>
@@ -13204,28 +13204,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.073929356</v>
+        <v>0.000073929356</v>
       </c>
       <c r="F3" t="n">
         <v>-21.5285252960172</v>
       </c>
       <c r="G3" t="n">
-        <v>0.795795005382131</v>
+        <v>0.000795795005382131</v>
       </c>
       <c r="H3" t="n">
-        <v>0.467408632</v>
+        <v>0.000467408632</v>
       </c>
       <c r="I3" t="n">
-        <v>-10.0626185575888</v>
+        <v>-0.0100626185575888</v>
       </c>
       <c r="J3" t="n">
-        <v>-30.1878556727664</v>
+        <v>-0.0301878556727664</v>
       </c>
       <c r="K3" t="n">
-        <v>28.867458934338</v>
+        <v>0.028867458934338</v>
       </c>
       <c r="L3" t="n">
-        <v>41.70070598493</v>
+        <v>0.04170070598493</v>
       </c>
       <c r="M3" t="n">
         <v>1.44455755803732</v>
@@ -13234,7 +13234,7 @@
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>10.4251764962325</v>
+        <v>0.0104251764962325</v>
       </c>
       <c r="P3" t="n">
         <v>0.361139389509331</v>
@@ -13257,28 +13257,28 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E4" t="n">
-        <v>0.860887908</v>
+        <v>0.000860887908</v>
       </c>
       <c r="F4" t="n">
         <v>32.2927879440258</v>
       </c>
       <c r="G4" t="n">
-        <v>27.80047065662</v>
+        <v>0.02780047065662</v>
       </c>
       <c r="H4" t="n">
-        <v>0.430443954</v>
+        <v>0.000430443954</v>
       </c>
       <c r="I4" t="n">
-        <v>13.90023532831</v>
+        <v>0.01390023532831</v>
       </c>
       <c r="J4" t="n">
-        <v>41.70070598493</v>
+        <v>0.04170070598493</v>
       </c>
       <c r="K4" t="n">
-        <v>28.867458934338</v>
+        <v>0.028867458934338</v>
       </c>
       <c r="L4" t="n">
-        <v>41.70070598493</v>
+        <v>0.04170070598493</v>
       </c>
       <c r="M4" t="n">
         <v>1.44455755803732</v>
@@ -13287,7 +13287,7 @@
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>10.4251764962325</v>
+        <v>0.0104251764962325</v>
       </c>
       <c r="P4" t="n">
         <v>0.361139389509331</v>
